--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="28200" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="620" yWindow="460" windowWidth="32980" windowHeight="20540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="所有账号" sheetId="1" r:id="rId1"/>
+    <sheet name="新号" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="22">
   <si>
     <t>用户名</t>
     <rPh sb="0" eb="1">
@@ -101,12 +102,36 @@
   <si>
     <t>A3396815</t>
   </si>
+  <si>
+    <t>a123456</t>
+  </si>
+  <si>
+    <t>a123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <rPh sb="0" eb="1">
+      <t>mi'ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cuo'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未注册</t>
+    <rPh sb="0" eb="1">
+      <t>wei'zhu'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +154,38 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -150,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -163,6 +220,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -444,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1113,4 +1179,885 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:B108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>18593078244</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>15635316166</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>15535874373</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>13052107547</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>13969577793</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>15835843109</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>15535874823</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>15525146023</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>15808729122</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>17331831740</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>18735426089</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>18734572393</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>15582882641</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>13103589823</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>15564917183</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>15588159966</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>13280502801</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>13619167945</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>18545086596</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>17732510974</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>18241816845</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>15682637686</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>15725878435</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>15934072914</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>18909564220</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>15660773191</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>17720982565</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>13843910857</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>17073020029</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>15386030922</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>15535890431</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>15303529430</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>15035858673</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>17635568238</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>15535486077</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>18754955373</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>13969995407</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>18154567585</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>13792814063</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>15834343940</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>13895490886</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>15081664435</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>17196748368</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>13781072791</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>15716559528</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>15121952364</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>15330512791</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>17031887830</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>15141626707</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>15042695614</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>13283936032</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>15076039887</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>15533586119</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>18632369087</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>13290979032</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>13936763461</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>15046800490</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>15081820867</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>15896028013</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>18735798509</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>15584909806</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>17631643045</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>18657933371</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>13500156546</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>15364585915</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>15053052761</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>17844202122</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>18833738332</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>18365799221</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>18435817238</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>13831322890</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>18434763969</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>15035399985</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>18291130651</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>17601643138</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>15612145727</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>13220790090</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>15235364989</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>15003443253</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>17131970724</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>15319647574</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>17667374197</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>17603803317</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>13676343367</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>15257918657</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
+        <v>13209986285</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
+        <v>15505201939</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>18831099037</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>17539236327</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>15039298864</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>13839228541</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
+        <v>15964388967</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>15733586109</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>17364621646</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>18534866149</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>15193524480</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>13353661484</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>13316547635</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>18818426811</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>15034681449</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>15133355337</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>15257918657</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>17833954615</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="9">
+        <v>18331375226</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="9">
+        <v>18256710448</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24920" windowHeight="15600" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24900" windowHeight="15600" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="所有账号" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="登录失败账号" sheetId="5" r:id="rId5"/>
     <sheet name="风控账号3月31号" sheetId="6" r:id="rId6"/>
     <sheet name="预约成功3月31号" sheetId="7" r:id="rId7"/>
+    <sheet name="4.1预约审核失败" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">所有账号!$A$1:$S$159</definedName>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="987">
   <si>
     <t>用户名</t>
     <rPh sb="0" eb="1">
@@ -2707,12 +2708,521 @@
   <si>
     <t>18256710448</t>
   </si>
+  <si>
+    <t>123456321654</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市朝阳区,金刚山烤肉</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,鲜牛记牛肉火锅</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,常赢三兄弟餐厅</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,Hi湘湖南料理</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,牛匠牛上牛韩国烤肉俱乐部</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,巢NEST</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,北京百汇求职公寓</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,瑞兆酒店国贸店</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,宽板凳老灶火锅(广渠门店)</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,渝焱火锅</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,龙庭酒家(西大望路店)</t>
+  </si>
+  <si>
+    <t>北京市东城区,源达烟酒茶行,</t>
+  </si>
+  <si>
+    <t>北京市东城区,爱眼眼镜(东四店),</t>
+  </si>
+  <si>
+    <t>北京市东城区,雍贵中心B座,8栋3201</t>
+  </si>
+  <si>
+    <t>北京市东城区,斜街甲50号</t>
+  </si>
+  <si>
+    <t>北京市东城区,劲松立交桥东北角</t>
+  </si>
+  <si>
+    <t>北京市东城区,北京市朝阳区劲松桥西北角,劲松一区</t>
+  </si>
+  <si>
+    <t>北京市东城区,北京市东城区培新街汇文中学旁</t>
+  </si>
+  <si>
+    <t>北京市东城区,百果园(东花市南路店),1层114号</t>
+  </si>
+  <si>
+    <t>北京市东城区,天空摄影(时尚婚纱摄影店),</t>
+  </si>
+  <si>
+    <t>北京市东城区,幸福家园3区6号楼,</t>
+  </si>
+  <si>
+    <t>北京市东城区,北京市东城区花市枣苑11号楼花市枣苑-11号楼</t>
+  </si>
+  <si>
+    <t>北京市东城区,北京市东城区西花市南里东区12号西花市南里东区12号楼</t>
+  </si>
+  <si>
+    <t>北京市东城区,家乐福(广渠门店),3栋309</t>
+  </si>
+  <si>
+    <t>北京市东城区,融合汇通典当行,</t>
+  </si>
+  <si>
+    <t>北京市东城区,北京市东城区西花市南里东区16号楼西花市南里东区16号楼-六单元</t>
+  </si>
+  <si>
+    <t>北京市东城区,北京市东城区东花市大街新景家园-东区</t>
+  </si>
+  <si>
+    <t>北京市东城区,东城区,金宝街1号</t>
+  </si>
+  <si>
+    <t>北京市东城区,伯鑫宾馆(西花市店),7楼705</t>
+  </si>
+  <si>
+    <t>北京市东城区,广渠门内大街,通用小区二单元二号楼208室</t>
+  </si>
+  <si>
+    <t>北京市东城区,北京市东城区安化北里18号北京上舍园</t>
+  </si>
+  <si>
+    <t>北京市东城区,富贵园,29号楼902</t>
+  </si>
+  <si>
+    <t>北京市东城区,富贵园,</t>
+  </si>
+  <si>
+    <t>北京市东城区,北京工商联大厦,2509</t>
+  </si>
+  <si>
+    <t>北京市东城区,幸福家园7号楼,2栋1单元</t>
+  </si>
+  <si>
+    <t>北京市东城区,金满街财富中心,</t>
+  </si>
+  <si>
+    <t>北京市东城区,东城区,海关大街南一巷13号</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,大关人东北烤肉</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,顺来福烤鸭家常菜</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,吴记淮南牛肉汤(双井店)</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,旧辣云南烧烤</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,瓦纳卡牛排(双井家乐福店)</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,北京瑞斯山海酒店</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,呷哺呷哺(广渠路店)</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,江边渔村</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,桐毅小院儿</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,谯家大院双井店</t>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receivePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wyp100721</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qin141208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lhj0325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108108li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jss19860529</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市朝阳区,食百汇美食城(双井店)</t>
+  </si>
+  <si>
+    <t>131531850002</t>
+  </si>
+  <si>
+    <t>收货地址存在安全隐患</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,荣小馆</t>
+  </si>
+  <si>
+    <t>13343192306</t>
+  </si>
+  <si>
+    <t>13485665202</t>
+  </si>
+  <si>
+    <t>终端设备存在安全隐患</t>
+  </si>
+  <si>
+    <t>13700077509</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,望京小腰(总店)</t>
+  </si>
+  <si>
+    <t>15063527308</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,张妈妈特色川味馆(百子湾店)</t>
+  </si>
+  <si>
+    <t>15075870900</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,长板凳老灶火锅</t>
+  </si>
+  <si>
+    <t>15206334806</t>
+  </si>
+  <si>
+    <t>15303199404</t>
+  </si>
+  <si>
+    <t>15354193701</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,人民公社大食堂(双井店)</t>
+  </si>
+  <si>
+    <t>15373204103</t>
+  </si>
+  <si>
+    <t>15399130008</t>
+  </si>
+  <si>
+    <t>15515970903</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,酷湘</t>
+  </si>
+  <si>
+    <t>15937230401</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,冰城老太太烧烤</t>
+  </si>
+  <si>
+    <t>15951853100</t>
+  </si>
+  <si>
+    <t>17379324007</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,家范儿</t>
+  </si>
+  <si>
+    <t>18537303402</t>
+  </si>
+  <si>
+    <t>预约审核收货地址高度相似异常</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,汉丽轩烤肉超市(双井店)</t>
+  </si>
+  <si>
+    <t>15777186402</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,一两饭</t>
+  </si>
+  <si>
+    <t>15835086909</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,LAD</t>
+  </si>
+  <si>
+    <t>13081312402</t>
+  </si>
+  <si>
+    <t>13842111000</t>
+  </si>
+  <si>
+    <t>18903188009</t>
+  </si>
+  <si>
+    <t>13670589603</t>
+  </si>
+  <si>
+    <t>13792080708</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,小小酒家</t>
+  </si>
+  <si>
+    <t>13313181305</t>
+  </si>
+  <si>
+    <t>17535275700</t>
+  </si>
+  <si>
+    <t>北京市东城区,北京市朝阳区3道街22号</t>
+  </si>
+  <si>
+    <t>北京市东城区,北京市朝阳区光华路1号</t>
+  </si>
+  <si>
+    <t>北京市东城区,北京市东城区苏州胡同101号</t>
+  </si>
+  <si>
+    <t>北京市东城区,北京市东城区崇文门西大街4-1号旁门附近</t>
+  </si>
+  <si>
+    <t>北京市东城区,北京市朝阳区月河胡同1号</t>
+  </si>
+  <si>
+    <t>北京市东城区,北京市东城区天坛东门东300米法华寺路南</t>
+  </si>
+  <si>
+    <t>北京市东城区,崇文门瓷器口车站旁100米</t>
+  </si>
+  <si>
+    <t>北京市东城区,白桥大街18号附近</t>
+  </si>
+  <si>
+    <t>北京市东城区,垂杨柳中街23号附近</t>
+  </si>
+  <si>
+    <t>15635316166</t>
+  </si>
+  <si>
+    <t>15635316106</t>
+  </si>
+  <si>
+    <t>13969577793</t>
+  </si>
+  <si>
+    <t>13969577703</t>
+  </si>
+  <si>
+    <t>15535874823</t>
+  </si>
+  <si>
+    <t>15535874803</t>
+  </si>
+  <si>
+    <t>15525146023</t>
+  </si>
+  <si>
+    <t>15525146003</t>
+  </si>
+  <si>
+    <t>15588159966</t>
+  </si>
+  <si>
+    <t>15588159906</t>
+  </si>
+  <si>
+    <t>15303529430</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,帝景豪廷酒店-西餐厅</t>
+  </si>
+  <si>
+    <t>15303529400</t>
+  </si>
+  <si>
+    <t>手机号码格式存在安全隐患</t>
+  </si>
+  <si>
+    <t>15834343940</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,争鲜外带寿司</t>
+  </si>
+  <si>
+    <t>15834343900</t>
+  </si>
+  <si>
+    <t>13781072791</t>
+  </si>
+  <si>
+    <t>13781072701</t>
+  </si>
+  <si>
+    <t>17031887830</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,潮汕小馆</t>
+  </si>
+  <si>
+    <t>17031887800</t>
+  </si>
+  <si>
+    <t>15046800490</t>
+  </si>
+  <si>
+    <t>15046800400</t>
+  </si>
+  <si>
+    <t>13831322890</t>
+  </si>
+  <si>
+    <t>13831322800</t>
+  </si>
+  <si>
+    <t>18434763969</t>
+  </si>
+  <si>
+    <t>18434763909</t>
+  </si>
+  <si>
+    <t>13220790090</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,漫牛韩式烤肉</t>
+  </si>
+  <si>
+    <t>13220790000</t>
+  </si>
+  <si>
+    <t>15003443253</t>
+  </si>
+  <si>
+    <t>15003443203</t>
+  </si>
+  <si>
+    <t>15505201939</t>
+  </si>
+  <si>
+    <t>15505201909</t>
+  </si>
+  <si>
+    <t>13839228541</t>
+  </si>
+  <si>
+    <t>北京市朝阳区,斗城幺妹火锅</t>
+  </si>
+  <si>
+    <t>13839228501</t>
+  </si>
+  <si>
+    <t>registPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receivePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125018adg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z410781</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15177909309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w070416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市朝阳区,LAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址重复次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址出现次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些为失败的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2829,6 +3339,25 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2850,7 +3379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2882,8 +3411,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2959,8 +3497,78 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3005,8 +3613,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="145">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3044,6 +3664,41 @@
     <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3081,6 +3736,41 @@
     <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3348,7 +4038,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12527,187 +13217,2789 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:J272"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="1"/>
+    <col min="2" max="3" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1"/>
+    <col min="6" max="6" width="29" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:10" ht="40">
       <c r="A1" s="17" t="s">
         <v>755</v>
       </c>
       <c r="B1" s="17"/>
-    </row>
-    <row r="2" spans="1:2" ht="20">
+      <c r="D1" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20">
       <c r="A2" s="11" t="s">
         <v>752</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" s="14">
+        <v>15549208672</v>
+      </c>
+      <c r="E2" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="G2" s="14">
+        <v>15549208672</v>
+      </c>
+      <c r="H2" s="14">
+        <v>15549208602</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14">
+        <f>COUNTIF(F$2:F$105,F2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="14">
         <v>13280502801</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" s="14">
+        <v>15238555689</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>828</v>
+      </c>
+      <c r="G3" s="14">
+        <v>15238555689</v>
+      </c>
+      <c r="H3" s="14">
+        <v>15238555609</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14">
+        <f t="shared" ref="J3:J66" si="0">COUNTIF(F$2:F$105,F3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="14">
         <v>13792814063</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" s="14">
+        <v>13720689056</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="G4" s="14">
+        <v>13720689056</v>
+      </c>
+      <c r="H4" s="14">
+        <v>13720689006</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="14">
         <v>18657933371</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" s="14">
+        <v>15665166293</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="G5" s="14">
+        <v>15665166293</v>
+      </c>
+      <c r="H5" s="14">
+        <v>15665166203</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="14">
         <v>18833738332</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6" s="14">
+        <v>13513642792</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="G6" s="14">
+        <v>13513642792</v>
+      </c>
+      <c r="H6" s="14">
+        <v>13513642702</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="14">
         <v>13353661484</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" s="14">
+        <v>18533703270</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>832</v>
+      </c>
+      <c r="G7" s="14">
+        <v>18533703270</v>
+      </c>
+      <c r="H7" s="14">
+        <v>18533703200</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="14">
         <v>17331831740</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8" s="14">
+        <v>15082907866</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="G8" s="14">
+        <v>15082907866</v>
+      </c>
+      <c r="H8" s="14">
+        <v>15082907806</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9" s="14">
+        <v>15935492346</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>834</v>
+      </c>
+      <c r="G9" s="14">
+        <v>15935492346</v>
+      </c>
+      <c r="H9" s="14">
+        <v>15935492306</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10" s="14">
+        <v>15046846298</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="G10" s="14">
+        <v>15046846298</v>
+      </c>
+      <c r="H10" s="14">
+        <v>15046846208</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11" s="14">
+        <v>13102661153</v>
+      </c>
+      <c r="E11" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="G11" s="14">
+        <v>13102661153</v>
+      </c>
+      <c r="H11" s="14">
+        <v>13102661103</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12" s="14">
+        <v>18709222182</v>
+      </c>
+      <c r="E12" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="G12" s="14">
+        <v>18709222182</v>
+      </c>
+      <c r="H12" s="14">
+        <v>18709222102</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13" s="14">
+        <v>13392151517</v>
+      </c>
+      <c r="E13" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="G13" s="14">
+        <v>13392151517</v>
+      </c>
+      <c r="H13" s="14">
+        <v>13392151517</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14" s="14">
+        <v>13413723166</v>
+      </c>
+      <c r="E14" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="G14" s="14">
+        <v>13413723166</v>
+      </c>
+      <c r="H14" s="14">
+        <v>13413723166</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15" s="14">
+        <v>13512856201</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="G15" s="14">
+        <v>13512856201</v>
+      </c>
+      <c r="H15" s="14">
+        <v>13512856201</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16" s="14">
+        <v>13546886639</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="G16" s="14">
+        <v>13546886639</v>
+      </c>
+      <c r="H16" s="14">
+        <v>13546886639</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17" s="14">
+        <v>15264711001</v>
+      </c>
+      <c r="E17" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="G17" s="14">
+        <v>15264711001</v>
+      </c>
+      <c r="H17" s="14">
+        <v>15264711001</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18" s="14">
+        <v>15393630594</v>
+      </c>
+      <c r="E18" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="G18" s="14">
+        <v>15393630594</v>
+      </c>
+      <c r="H18" s="14">
+        <v>15393630594</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19" s="14">
+        <v>15633523066</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>882</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="G19" s="14">
+        <v>15633523066</v>
+      </c>
+      <c r="H19" s="14">
+        <v>15633523066</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20" s="14">
+        <v>15645919316</v>
+      </c>
+      <c r="E20" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>845</v>
+      </c>
+      <c r="G20" s="14">
+        <v>15645919316</v>
+      </c>
+      <c r="H20" s="14">
+        <v>15645919316</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21" s="14">
+        <v>15697680921</v>
+      </c>
+      <c r="E21" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>846</v>
+      </c>
+      <c r="G21" s="14">
+        <v>15697680921</v>
+      </c>
+      <c r="H21" s="14">
+        <v>15697680921</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22" s="14">
+        <v>15698229041</v>
+      </c>
+      <c r="E22" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="G22" s="14">
+        <v>15698229041</v>
+      </c>
+      <c r="H22" s="14">
+        <v>15698229041</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23" s="14">
+        <v>15699770933</v>
+      </c>
+      <c r="E23" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="G23" s="14">
+        <v>15699770933</v>
+      </c>
+      <c r="H23" s="14">
+        <v>15699770933</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24" s="14">
+        <v>15949806339</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="G24" s="14">
+        <v>15949806339</v>
+      </c>
+      <c r="H24" s="14">
+        <v>15949806339</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25" s="14">
+        <v>15981953127</v>
+      </c>
+      <c r="E25" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>850</v>
+      </c>
+      <c r="G25" s="14">
+        <v>15981953127</v>
+      </c>
+      <c r="H25" s="14">
+        <v>15981953127</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="D26" s="14">
+        <v>17097224268</v>
+      </c>
+      <c r="E26" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>851</v>
+      </c>
+      <c r="G26" s="14">
+        <v>17097224268</v>
+      </c>
+      <c r="H26" s="14">
+        <v>17097224268</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="D27" s="14">
+        <v>17505106529</v>
+      </c>
+      <c r="E27" s="14">
+        <v>132623</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="G27" s="14">
+        <v>17505106529</v>
+      </c>
+      <c r="H27" s="14">
+        <v>17505106529</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="D28" s="14">
+        <v>17753747930</v>
+      </c>
+      <c r="E28" s="14">
+        <v>8642569</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="G28" s="14">
+        <v>17753747930</v>
+      </c>
+      <c r="H28" s="14">
+        <v>17753747930</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="D29" s="14">
+        <v>17757449525</v>
+      </c>
+      <c r="E29" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>854</v>
+      </c>
+      <c r="G29" s="14">
+        <v>17757449525</v>
+      </c>
+      <c r="H29" s="14">
+        <v>17757449525</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="D30" s="14">
+        <v>18131970041</v>
+      </c>
+      <c r="E30" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="G30" s="14">
+        <v>18131970041</v>
+      </c>
+      <c r="H30" s="14">
+        <v>18131970041</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="D31" s="14">
+        <v>18232902912</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>884</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="G31" s="14">
+        <v>18232902912</v>
+      </c>
+      <c r="H31" s="14">
+        <v>18232902912</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="D32" s="14">
+        <v>18246626742</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="G32" s="14">
+        <v>18246626742</v>
+      </c>
+      <c r="H32" s="14">
+        <v>18246626742</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="D33" s="14">
+        <v>18253251389</v>
+      </c>
+      <c r="E33" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>858</v>
+      </c>
+      <c r="G33" s="14">
+        <v>18253251389</v>
+      </c>
+      <c r="H33" s="14">
+        <v>18253251389</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
+      <c r="D34" s="14">
+        <v>18382394514</v>
+      </c>
+      <c r="E34" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="G34" s="14">
+        <v>18382394514</v>
+      </c>
+      <c r="H34" s="14">
+        <v>18382394514</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="D35" s="14">
+        <v>18810320392</v>
+      </c>
+      <c r="E35" s="14">
+        <v>12345678</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>860</v>
+      </c>
+      <c r="G35" s="14">
+        <v>18810320392</v>
+      </c>
+      <c r="H35" s="14">
+        <v>18810320392</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="D36" s="14">
+        <v>18863572962</v>
+      </c>
+      <c r="E36" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="G36" s="14">
+        <v>18863572962</v>
+      </c>
+      <c r="H36" s="14">
+        <v>18863572962</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="D37" s="14">
+        <v>18946959184</v>
+      </c>
+      <c r="E37" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="G37" s="14">
+        <v>18946959184</v>
+      </c>
+      <c r="H37" s="14">
+        <v>18946959184</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="D38" s="14">
+        <v>18967839427</v>
+      </c>
+      <c r="E38" s="14">
+        <v>123456</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="G38" s="14">
+        <v>18967839427</v>
+      </c>
+      <c r="H38" s="14">
+        <v>18967839427</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="D39" s="14">
+        <v>15582882641</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="G39" s="14">
+        <v>15582882641</v>
+      </c>
+      <c r="H39" s="14">
+        <v>15582882601</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="D40" s="14">
+        <v>15535890431</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="G40" s="14">
+        <v>15535890431</v>
+      </c>
+      <c r="H40" s="14">
+        <v>15535890401</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="D41" s="14">
+        <v>15535486077</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="G41" s="14">
+        <v>15535486077</v>
+      </c>
+      <c r="H41" s="14">
+        <v>15535486007</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="D42" s="14">
+        <v>13895490886</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="G42" s="14">
+        <v>13895490886</v>
+      </c>
+      <c r="H42" s="14">
+        <v>13895490806</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="D43" s="14">
+        <v>15081664435</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="G43" s="14">
+        <v>15081664435</v>
+      </c>
+      <c r="H43" s="14">
+        <v>15081664405</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="D44" s="14">
+        <v>15330512791</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="G44" s="14">
+        <v>15330512791</v>
+      </c>
+      <c r="H44" s="14">
+        <v>15330512701</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="D45" s="14">
+        <v>13283936032</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="G45" s="14">
+        <v>13283936032</v>
+      </c>
+      <c r="H45" s="14">
+        <v>13283936002</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="D46" s="14">
+        <v>15081820867</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="G46" s="14">
+        <v>15081820867</v>
+      </c>
+      <c r="H46" s="14">
+        <v>15081820807</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="D47" s="14">
+        <v>15035399985</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="G47" s="14">
+        <v>15035399985</v>
+      </c>
+      <c r="H47" s="14">
+        <v>15035399905</v>
+      </c>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="D48" s="14">
+        <v>18291130651</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>872</v>
+      </c>
+      <c r="G48" s="14">
+        <v>18291130651</v>
+      </c>
+      <c r="H48" s="14">
+        <v>18291130601</v>
+      </c>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="D49" s="14">
+        <v>13676343367</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="G49" s="14">
+        <v>13676343367</v>
+      </c>
+      <c r="H49" s="14">
+        <v>13676343307</v>
+      </c>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="D50" s="14">
+        <v>15257918657</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="G50" s="14">
+        <v>15257918657</v>
+      </c>
+      <c r="H50" s="14">
+        <v>15257918607</v>
+      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="D51" s="14">
+        <v>18831099037</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="G51" s="14">
+        <v>18831099037</v>
+      </c>
+      <c r="H51" s="14">
+        <v>18831099007</v>
+      </c>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10">
+      <c r="D52" s="14">
+        <v>15039298864</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="G52" s="14">
+        <v>15039298864</v>
+      </c>
+      <c r="H52" s="14">
+        <v>15039298804</v>
+      </c>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="D53" s="14">
+        <v>18818426811</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>832</v>
+      </c>
+      <c r="G53" s="14">
+        <v>18818426811</v>
+      </c>
+      <c r="H53" s="14">
+        <v>18818426801</v>
+      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="D54" s="14">
+        <v>15257918657</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="G54" s="14">
+        <v>15257918657</v>
+      </c>
+      <c r="H54" s="14">
+        <v>15257918607</v>
+      </c>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10">
+      <c r="D55" s="14">
+        <v>18331375226</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="G55" s="14">
+        <v>18331375226</v>
+      </c>
+      <c r="H55" s="14">
+        <v>18331375206</v>
+      </c>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" ht="30">
+      <c r="C56" s="23" t="s">
+        <v>986</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>886</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="I56" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J56" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" ht="30">
+      <c r="C57" s="23"/>
+      <c r="F57" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>890</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J57" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" ht="30">
+      <c r="C58" s="23"/>
+      <c r="F58" s="22" t="s">
+        <v>894</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>895</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J58" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" ht="30">
+      <c r="C59" s="23"/>
+      <c r="F59" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>897</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="I59" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J59" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" ht="30">
+      <c r="C60" s="23"/>
+      <c r="F60" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>899</v>
+      </c>
+      <c r="H60" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="I60" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J60" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" ht="30">
+      <c r="C61" s="23"/>
+      <c r="F61" s="22" t="s">
+        <v>886</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>900</v>
+      </c>
+      <c r="H61" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="I61" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J61" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" ht="30">
+      <c r="C62" s="23"/>
+      <c r="F62" s="22" t="s">
+        <v>908</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>909</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J62" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" ht="30">
+      <c r="C63" s="23"/>
+      <c r="F63" s="22" t="s">
+        <v>914</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>915</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="I63" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J63" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" ht="30">
+      <c r="C64" s="23"/>
+      <c r="F64" s="22" t="s">
+        <v>886</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>920</v>
+      </c>
+      <c r="H64" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J64" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" ht="30">
+      <c r="C65" s="23"/>
+      <c r="F65" s="22" t="s">
+        <v>894</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>921</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J65" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" ht="30">
+      <c r="C66" s="23"/>
+      <c r="F66" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>922</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J66" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" ht="30">
+      <c r="C67" s="23"/>
+      <c r="F67" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>923</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="I67" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J67" s="14">
+        <f t="shared" ref="J67:J105" si="1">COUNTIF(F$2:F$105,F67)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" ht="30">
+      <c r="C68" s="23"/>
+      <c r="F68" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>925</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J68" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" ht="30">
+      <c r="C69" s="23"/>
+      <c r="F69" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>937</v>
+      </c>
+      <c r="H69" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="I69" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J69" s="14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" ht="30">
+      <c r="C70" s="23"/>
+      <c r="F70" s="22" t="s">
+        <v>894</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="H70" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J70" s="14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" ht="30">
+      <c r="C71" s="23"/>
+      <c r="F71" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>941</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>940</v>
+      </c>
+      <c r="I71" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J71" s="14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" ht="30">
+      <c r="C72" s="23"/>
+      <c r="F72" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>943</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="I72" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J72" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" ht="30">
+      <c r="C73" s="23"/>
+      <c r="F73" s="22" t="s">
+        <v>908</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>944</v>
+      </c>
+      <c r="I73" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J73" s="14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" ht="30">
+      <c r="C74" s="23"/>
+      <c r="F74" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="I74" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J74" s="14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" ht="30">
+      <c r="C75" s="23"/>
+      <c r="F75" s="22" t="s">
+        <v>908</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>963</v>
+      </c>
+      <c r="H75" s="22" t="s">
+        <v>962</v>
+      </c>
+      <c r="I75" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J75" s="14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" ht="30">
+      <c r="C76" s="23"/>
+      <c r="F76" s="22" t="s">
+        <v>914</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>968</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>967</v>
+      </c>
+      <c r="I76" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J76" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" ht="30">
+      <c r="C77" s="23"/>
+      <c r="F77" s="22" t="s">
+        <v>972</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>973</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>971</v>
+      </c>
+      <c r="I77" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="J77" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" ht="30">
+      <c r="C78" s="23"/>
+      <c r="F78" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>948</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>949</v>
+      </c>
+      <c r="J78" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" ht="30">
+      <c r="C79" s="23"/>
+      <c r="F79" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>952</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>950</v>
+      </c>
+      <c r="I79" s="22" t="s">
+        <v>949</v>
+      </c>
+      <c r="J79" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" ht="30">
+      <c r="C80" s="23"/>
+      <c r="F80" s="22" t="s">
+        <v>956</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="H80" s="22" t="s">
+        <v>955</v>
+      </c>
+      <c r="I80" s="22" t="s">
+        <v>949</v>
+      </c>
+      <c r="J80" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" ht="30">
+      <c r="C81" s="23"/>
+      <c r="F81" s="22" t="s">
+        <v>906</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>961</v>
+      </c>
+      <c r="H81" s="22" t="s">
+        <v>960</v>
+      </c>
+      <c r="I81" s="22" t="s">
+        <v>949</v>
+      </c>
+      <c r="J81" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" ht="30">
+      <c r="C82" s="23"/>
+      <c r="F82" s="22" t="s">
+        <v>965</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>966</v>
+      </c>
+      <c r="H82" s="22" t="s">
+        <v>964</v>
+      </c>
+      <c r="I82" s="22" t="s">
+        <v>949</v>
+      </c>
+      <c r="J82" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10" ht="45">
+      <c r="C83" s="23"/>
+      <c r="F83" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="G83" s="22" t="s">
+        <v>912</v>
+      </c>
+      <c r="H83" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="I83" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="J83" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10" ht="45">
+      <c r="C84" s="23"/>
+      <c r="F84" s="22" t="s">
+        <v>916</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="H84" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="I84" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="J84" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" ht="45">
+      <c r="C85" s="23"/>
+      <c r="F85" s="22" t="s">
+        <v>918</v>
+      </c>
+      <c r="G85" s="22" t="s">
+        <v>919</v>
+      </c>
+      <c r="H85" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="I85" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="J85" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" ht="45">
+      <c r="C86" s="23"/>
+      <c r="F86" s="22" t="s">
+        <v>927</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="H86" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I86" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="J86" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10" ht="45">
+      <c r="C87" s="23"/>
+      <c r="F87" s="22" t="s">
+        <v>928</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="H87" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="I87" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="J87" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10" ht="45">
+      <c r="C88" s="23"/>
+      <c r="F88" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="H88" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="I88" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="J88" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="3:10" ht="45">
+      <c r="C89" s="23"/>
+      <c r="F89" s="22" t="s">
+        <v>930</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="H89" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="I89" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="J89" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10" ht="45">
+      <c r="C90" s="23"/>
+      <c r="F90" s="22" t="s">
+        <v>931</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="H90" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="I90" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="J90" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10" ht="45">
+      <c r="C91" s="23"/>
+      <c r="F91" s="22" t="s">
+        <v>932</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="H91" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="I91" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="J91" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10" ht="45">
+      <c r="C92" s="23"/>
+      <c r="F92" s="22" t="s">
+        <v>933</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="H92" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="I92" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="J92" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="3:10" ht="45">
+      <c r="C93" s="23"/>
+      <c r="F93" s="22" t="s">
+        <v>934</v>
+      </c>
+      <c r="G93" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="H93" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="I93" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="J93" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10" ht="45">
+      <c r="C94" s="23"/>
+      <c r="F94" s="22" t="s">
+        <v>935</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="H94" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="I94" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="J94" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10" ht="45">
+      <c r="C95" s="23"/>
+      <c r="F95" s="22" t="s">
+        <v>983</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>954</v>
+      </c>
+      <c r="H95" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="I95" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="J95" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="3:10" ht="45">
+      <c r="C96" s="23"/>
+      <c r="F96" s="22" t="s">
+        <v>916</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>970</v>
+      </c>
+      <c r="H96" s="22" t="s">
+        <v>969</v>
+      </c>
+      <c r="I96" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="J96" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10" ht="30">
+      <c r="C97" s="23"/>
+      <c r="F97" s="22" t="s">
+        <v>870</v>
+      </c>
+      <c r="G97" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="H97" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="I97" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="J97" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10" ht="30">
+      <c r="C98" s="23"/>
+      <c r="F98" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="G98" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="H98" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="I98" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="J98" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10" ht="30">
+      <c r="C99" s="23"/>
+      <c r="F99" s="22" t="s">
+        <v>836</v>
+      </c>
+      <c r="G99" s="22" t="s">
+        <v>901</v>
+      </c>
+      <c r="H99" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="I99" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="J99" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10" ht="30">
+      <c r="C100" s="23"/>
+      <c r="F100" s="22" t="s">
+        <v>902</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>903</v>
+      </c>
+      <c r="H100" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="I100" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="J100" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10" ht="30">
+      <c r="C101" s="23"/>
+      <c r="F101" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>904</v>
+      </c>
+      <c r="H101" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="I101" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="J101" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10" ht="30">
+      <c r="C102" s="23"/>
+      <c r="F102" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>905</v>
+      </c>
+      <c r="H102" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="I102" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="J102" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="3:10" ht="30">
+      <c r="C103" s="23"/>
+      <c r="F103" s="22" t="s">
+        <v>906</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>907</v>
+      </c>
+      <c r="H103" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="I103" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="J103" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="3:10" ht="30">
+      <c r="C104" s="23"/>
+      <c r="F104" s="22" t="s">
+        <v>871</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>910</v>
+      </c>
+      <c r="H104" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="I104" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="J104" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="3:10" ht="30">
+      <c r="C105" s="23"/>
+      <c r="F105" s="22" t="s">
+        <v>902</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="H105" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="I105" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="J105" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="3:10">
+      <c r="D106" s="21"/>
+    </row>
+    <row r="107" spans="3:10">
+      <c r="D107" s="20"/>
+    </row>
+    <row r="108" spans="3:10">
+      <c r="D108" s="20"/>
+    </row>
+    <row r="109" spans="3:10">
+      <c r="D109" s="20"/>
+    </row>
+    <row r="110" spans="3:10">
+      <c r="D110" s="20"/>
+    </row>
+    <row r="111" spans="3:10">
+      <c r="D111" s="21"/>
+    </row>
+    <row r="112" spans="3:10">
+      <c r="D112" s="20"/>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="20"/>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="20"/>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="20"/>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" s="21"/>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" s="20"/>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" s="20"/>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="20"/>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="20"/>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" s="21"/>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" s="20"/>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" s="20"/>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" s="20"/>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" s="20"/>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="D126" s="21"/>
+    </row>
+    <row r="127" spans="4:4">
+      <c r="D127" s="20"/>
+    </row>
+    <row r="128" spans="4:4">
+      <c r="D128" s="20"/>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" s="20"/>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" s="20"/>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="D131" s="21"/>
+    </row>
+    <row r="132" spans="4:4">
+      <c r="D132" s="20"/>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" s="20"/>
+    </row>
+    <row r="134" spans="4:4">
+      <c r="D134" s="20"/>
+    </row>
+    <row r="135" spans="4:4">
+      <c r="D135" s="20"/>
+    </row>
+    <row r="136" spans="4:4">
+      <c r="D136" s="21"/>
+    </row>
+    <row r="137" spans="4:4">
+      <c r="D137" s="20"/>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="D138" s="20"/>
+    </row>
+    <row r="139" spans="4:4">
+      <c r="D139" s="20"/>
+    </row>
+    <row r="140" spans="4:4">
+      <c r="D140" s="20"/>
+    </row>
+    <row r="141" spans="4:4">
+      <c r="D141" s="21"/>
+    </row>
+    <row r="142" spans="4:4">
+      <c r="D142" s="20"/>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" s="20"/>
+    </row>
+    <row r="144" spans="4:4">
+      <c r="D144" s="20"/>
+    </row>
+    <row r="145" spans="4:4">
+      <c r="D145" s="20"/>
+    </row>
+    <row r="146" spans="4:4">
+      <c r="D146" s="21"/>
+    </row>
+    <row r="147" spans="4:4">
+      <c r="D147" s="20"/>
+    </row>
+    <row r="148" spans="4:4">
+      <c r="D148" s="20"/>
+    </row>
+    <row r="149" spans="4:4">
+      <c r="D149" s="20"/>
+    </row>
+    <row r="150" spans="4:4">
+      <c r="D150" s="20"/>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151" s="21"/>
+    </row>
+    <row r="152" spans="4:4">
+      <c r="D152" s="20"/>
+    </row>
+    <row r="153" spans="4:4">
+      <c r="D153" s="20"/>
+    </row>
+    <row r="154" spans="4:4">
+      <c r="D154" s="20"/>
+    </row>
+    <row r="155" spans="4:4">
+      <c r="D155" s="20"/>
+    </row>
+    <row r="156" spans="4:4">
+      <c r="D156" s="21"/>
+    </row>
+    <row r="157" spans="4:4">
+      <c r="D157" s="20"/>
+    </row>
+    <row r="158" spans="4:4">
+      <c r="D158" s="20"/>
+    </row>
+    <row r="159" spans="4:4">
+      <c r="D159" s="20"/>
+    </row>
+    <row r="160" spans="4:4">
+      <c r="D160" s="20"/>
+    </row>
+    <row r="161" spans="4:4">
+      <c r="D161" s="21"/>
+    </row>
+    <row r="162" spans="4:4">
+      <c r="D162" s="20"/>
+    </row>
+    <row r="163" spans="4:4">
+      <c r="D163" s="20"/>
+    </row>
+    <row r="164" spans="4:4">
+      <c r="D164" s="20"/>
+    </row>
+    <row r="165" spans="4:4">
+      <c r="D165" s="20"/>
+    </row>
+    <row r="166" spans="4:4">
+      <c r="D166" s="21"/>
+    </row>
+    <row r="167" spans="4:4">
+      <c r="D167" s="20"/>
+    </row>
+    <row r="168" spans="4:4">
+      <c r="D168" s="20"/>
+    </row>
+    <row r="169" spans="4:4">
+      <c r="D169" s="20"/>
+    </row>
+    <row r="170" spans="4:4">
+      <c r="D170" s="20"/>
+    </row>
+    <row r="171" spans="4:4">
+      <c r="D171" s="21"/>
+    </row>
+    <row r="172" spans="4:4">
+      <c r="D172" s="20"/>
+    </row>
+    <row r="173" spans="4:4">
+      <c r="D173" s="20"/>
+    </row>
+    <row r="174" spans="4:4">
+      <c r="D174" s="20"/>
+    </row>
+    <row r="175" spans="4:4">
+      <c r="D175" s="20"/>
+    </row>
+    <row r="176" spans="4:4">
+      <c r="D176" s="21"/>
+    </row>
+    <row r="177" spans="4:4">
+      <c r="D177" s="20"/>
+    </row>
+    <row r="178" spans="4:4">
+      <c r="D178" s="20"/>
+    </row>
+    <row r="179" spans="4:4">
+      <c r="D179" s="20"/>
+    </row>
+    <row r="180" spans="4:4">
+      <c r="D180" s="20"/>
+    </row>
+    <row r="181" spans="4:4">
+      <c r="D181" s="21"/>
+    </row>
+    <row r="182" spans="4:4">
+      <c r="D182" s="20"/>
+    </row>
+    <row r="183" spans="4:4">
+      <c r="D183" s="20"/>
+    </row>
+    <row r="184" spans="4:4">
+      <c r="D184" s="20"/>
+    </row>
+    <row r="185" spans="4:4">
+      <c r="D185" s="20"/>
+    </row>
+    <row r="186" spans="4:4">
+      <c r="D186" s="21"/>
+    </row>
+    <row r="187" spans="4:4">
+      <c r="D187" s="20"/>
+    </row>
+    <row r="188" spans="4:4">
+      <c r="D188" s="20"/>
+    </row>
+    <row r="189" spans="4:4">
+      <c r="D189" s="20"/>
+    </row>
+    <row r="190" spans="4:4">
+      <c r="D190" s="20"/>
+    </row>
+    <row r="191" spans="4:4">
+      <c r="D191" s="21"/>
+    </row>
+    <row r="192" spans="4:4">
+      <c r="D192" s="20"/>
+    </row>
+    <row r="193" spans="4:4">
+      <c r="D193" s="20"/>
+    </row>
+    <row r="194" spans="4:4">
+      <c r="D194" s="20"/>
+    </row>
+    <row r="195" spans="4:4">
+      <c r="D195" s="20"/>
+    </row>
+    <row r="196" spans="4:4">
+      <c r="D196" s="21"/>
+    </row>
+    <row r="197" spans="4:4">
+      <c r="D197" s="20"/>
+    </row>
+    <row r="198" spans="4:4">
+      <c r="D198" s="20"/>
+    </row>
+    <row r="199" spans="4:4">
+      <c r="D199" s="20"/>
+    </row>
+    <row r="200" spans="4:4">
+      <c r="D200" s="20"/>
+    </row>
+    <row r="201" spans="4:4">
+      <c r="D201" s="21"/>
+    </row>
+    <row r="202" spans="4:4">
+      <c r="D202" s="20"/>
+    </row>
+    <row r="203" spans="4:4">
+      <c r="D203" s="20"/>
+    </row>
+    <row r="204" spans="4:4">
+      <c r="D204" s="20"/>
+    </row>
+    <row r="205" spans="4:4">
+      <c r="D205" s="20"/>
+    </row>
+    <row r="206" spans="4:4">
+      <c r="D206" s="21"/>
+    </row>
+    <row r="207" spans="4:4">
+      <c r="D207" s="20"/>
+    </row>
+    <row r="208" spans="4:4">
+      <c r="D208" s="20"/>
+    </row>
+    <row r="209" spans="4:4">
+      <c r="D209" s="20"/>
+    </row>
+    <row r="210" spans="4:4">
+      <c r="D210" s="20"/>
+    </row>
+    <row r="211" spans="4:4">
+      <c r="D211" s="21"/>
+    </row>
+    <row r="212" spans="4:4">
+      <c r="D212" s="20"/>
+    </row>
+    <row r="213" spans="4:4">
+      <c r="D213" s="20"/>
+    </row>
+    <row r="214" spans="4:4">
+      <c r="D214" s="20"/>
+    </row>
+    <row r="215" spans="4:4">
+      <c r="D215" s="20"/>
+    </row>
+    <row r="216" spans="4:4">
+      <c r="D216" s="21"/>
+    </row>
+    <row r="217" spans="4:4">
+      <c r="D217" s="20"/>
+    </row>
+    <row r="218" spans="4:4">
+      <c r="D218" s="20"/>
+    </row>
+    <row r="219" spans="4:4">
+      <c r="D219" s="20"/>
+    </row>
+    <row r="220" spans="4:4">
+      <c r="D220" s="20"/>
+    </row>
+    <row r="221" spans="4:4">
+      <c r="D221" s="21"/>
+    </row>
+    <row r="222" spans="4:4">
+      <c r="D222" s="20"/>
+    </row>
+    <row r="223" spans="4:4">
+      <c r="D223" s="20"/>
+    </row>
+    <row r="224" spans="4:4">
+      <c r="D224" s="20"/>
+    </row>
+    <row r="225" spans="4:4">
+      <c r="D225" s="20"/>
+    </row>
+    <row r="226" spans="4:4">
+      <c r="D226" s="21"/>
+    </row>
+    <row r="227" spans="4:4">
+      <c r="D227" s="20"/>
+    </row>
+    <row r="228" spans="4:4">
+      <c r="D228" s="20"/>
+    </row>
+    <row r="229" spans="4:4">
+      <c r="D229" s="20"/>
+    </row>
+    <row r="230" spans="4:4">
+      <c r="D230" s="20"/>
+    </row>
+    <row r="231" spans="4:4">
+      <c r="D231" s="21"/>
+    </row>
+    <row r="232" spans="4:4">
+      <c r="D232" s="20"/>
+    </row>
+    <row r="233" spans="4:4">
+      <c r="D233" s="20"/>
+    </row>
+    <row r="234" spans="4:4">
+      <c r="D234" s="20"/>
+    </row>
+    <row r="235" spans="4:4">
+      <c r="D235" s="20"/>
+    </row>
+    <row r="236" spans="4:4">
+      <c r="D236" s="21"/>
+    </row>
+    <row r="237" spans="4:4">
+      <c r="D237" s="20"/>
+    </row>
+    <row r="238" spans="4:4">
+      <c r="D238" s="20"/>
+    </row>
+    <row r="239" spans="4:4">
+      <c r="D239" s="20"/>
+    </row>
+    <row r="240" spans="4:4">
+      <c r="D240" s="20"/>
+    </row>
+    <row r="241" spans="4:4">
+      <c r="D241" s="21"/>
+    </row>
+    <row r="242" spans="4:4">
+      <c r="D242" s="20"/>
+    </row>
+    <row r="243" spans="4:4">
+      <c r="D243" s="20"/>
+    </row>
+    <row r="244" spans="4:4">
+      <c r="D244" s="20"/>
+    </row>
+    <row r="245" spans="4:4">
+      <c r="D245" s="20"/>
+    </row>
+    <row r="246" spans="4:4">
+      <c r="D246" s="21"/>
+    </row>
+    <row r="247" spans="4:4">
+      <c r="D247" s="20"/>
+    </row>
+    <row r="248" spans="4:4">
+      <c r="D248" s="20"/>
+    </row>
+    <row r="249" spans="4:4">
+      <c r="D249" s="20"/>
+    </row>
+    <row r="250" spans="4:4">
+      <c r="D250" s="20"/>
+    </row>
+    <row r="251" spans="4:4">
+      <c r="D251" s="21"/>
+    </row>
+    <row r="252" spans="4:4">
+      <c r="D252" s="20"/>
+    </row>
+    <row r="253" spans="4:4">
+      <c r="D253" s="20"/>
+    </row>
+    <row r="254" spans="4:4">
+      <c r="D254" s="20"/>
+    </row>
+    <row r="255" spans="4:4">
+      <c r="D255" s="20"/>
+    </row>
+    <row r="256" spans="4:4">
+      <c r="D256" s="21"/>
+    </row>
+    <row r="257" spans="4:4">
+      <c r="D257" s="20"/>
+    </row>
+    <row r="258" spans="4:4">
+      <c r="D258" s="20"/>
+    </row>
+    <row r="259" spans="4:4">
+      <c r="D259" s="20"/>
+    </row>
+    <row r="260" spans="4:4">
+      <c r="D260" s="20"/>
+    </row>
+    <row r="261" spans="4:4">
+      <c r="D261" s="21"/>
+    </row>
+    <row r="262" spans="4:4">
+      <c r="D262" s="20"/>
+    </row>
+    <row r="263" spans="4:4">
+      <c r="D263" s="20"/>
+    </row>
+    <row r="264" spans="4:4">
+      <c r="D264" s="20"/>
+    </row>
+    <row r="265" spans="4:4">
+      <c r="D265" s="20"/>
+    </row>
+    <row r="266" spans="4:4">
+      <c r="D266" s="21"/>
+    </row>
+    <row r="267" spans="4:4">
+      <c r="D267" s="20"/>
+    </row>
+    <row r="268" spans="4:4">
+      <c r="D268" s="20"/>
+    </row>
+    <row r="269" spans="4:4">
+      <c r="D269" s="20"/>
+    </row>
+    <row r="270" spans="4:4">
+      <c r="D270" s="20"/>
+    </row>
+    <row r="271" spans="4:4">
+      <c r="D271" s="21"/>
+    </row>
+    <row r="272" spans="4:4">
+      <c r="D272" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C56:C105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15648,7 +18940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A38" sqref="A38:C99"/>
     </sheetView>
   </sheetViews>
@@ -16729,11 +20021,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:B107"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" style="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20">
       <c r="A1" s="11" t="s">
@@ -16747,7 +20042,7 @@
       <c r="A2" s="14">
         <v>13153185002</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -16755,7 +20050,7 @@
       <c r="A3" s="14">
         <v>13343192376</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -16763,7 +20058,7 @@
       <c r="A4" s="14">
         <v>13485665212</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -16771,7 +20066,7 @@
       <c r="A5" s="14">
         <v>13700077519</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -16779,7 +20074,7 @@
       <c r="A6" s="14">
         <v>15063527328</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -16787,7 +20082,7 @@
       <c r="A7" s="14">
         <v>15075870950</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -16795,7 +20090,7 @@
       <c r="A8" s="14">
         <v>15206334886</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -16803,7 +20098,7 @@
       <c r="A9" s="14">
         <v>15303199414</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -16811,7 +20106,7 @@
       <c r="A10" s="14">
         <v>15354193781</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -16819,7 +20114,7 @@
       <c r="A11" s="14">
         <v>15373204143</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -16827,7 +20122,7 @@
       <c r="A12" s="14">
         <v>15399130078</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -16835,7 +20130,7 @@
       <c r="A13" s="14">
         <v>15515970953</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -16843,7 +20138,7 @@
       <c r="A14" s="14">
         <v>15937230461</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -16851,7 +20146,7 @@
       <c r="A15" s="14">
         <v>15951853170</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -16859,7 +20154,7 @@
       <c r="A16" s="14">
         <v>17379324087</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -16867,7 +20162,7 @@
       <c r="A17" s="14">
         <v>18537303412</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -16875,7 +20170,7 @@
       <c r="A18" s="14">
         <v>15549208672</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -16883,7 +20178,7 @@
       <c r="A19" s="14">
         <v>15777186432</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="18">
         <v>15177909309</v>
       </c>
     </row>
@@ -16891,7 +20186,7 @@
       <c r="A20" s="14">
         <v>15238555689</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16899,7 +20194,7 @@
       <c r="A21" s="14">
         <v>13720689056</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16907,7 +20202,7 @@
       <c r="A22" s="14">
         <v>15835086989</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -16915,7 +20210,7 @@
       <c r="A23" s="14">
         <v>15665166293</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16923,7 +20218,7 @@
       <c r="A24" s="14">
         <v>13513642792</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16931,7 +20226,7 @@
       <c r="A25" s="14">
         <v>13081312422</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16939,7 +20234,7 @@
       <c r="A26" s="14">
         <v>18533703270</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16947,7 +20242,7 @@
       <c r="A27" s="14">
         <v>15082907866</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -16955,7 +20250,7 @@
       <c r="A28" s="14">
         <v>15935492346</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16963,7 +20258,7 @@
       <c r="A29" s="14">
         <v>13842111030</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16971,7 +20266,7 @@
       <c r="A30" s="14">
         <v>15046846298</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16979,7 +20274,7 @@
       <c r="A31" s="14">
         <v>18903188059</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16987,7 +20282,7 @@
       <c r="A32" s="14">
         <v>13670589613</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16995,7 +20290,7 @@
       <c r="A33" s="14">
         <v>13792080758</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17003,7 +20298,7 @@
       <c r="A34" s="14">
         <v>13313181385</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -17011,7 +20306,7 @@
       <c r="A35" s="14">
         <v>13102661153</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17019,7 +20314,7 @@
       <c r="A36" s="14">
         <v>17535275750</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17027,7 +20322,7 @@
       <c r="A37" s="14">
         <v>18709222182</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17035,7 +20330,7 @@
       <c r="A38" s="14">
         <v>13351208936</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -17043,7 +20338,7 @@
       <c r="A39" s="14">
         <v>13392151517</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17051,7 +20346,7 @@
       <c r="A40" s="14">
         <v>13399381732</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -17059,7 +20354,7 @@
       <c r="A41" s="14">
         <v>13413723166</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17067,7 +20362,7 @@
       <c r="A42" s="14">
         <v>13453301621</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="18">
         <v>654321</v>
       </c>
     </row>
@@ -17075,7 +20370,7 @@
       <c r="A43" s="14">
         <v>13512856201</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -17083,7 +20378,7 @@
       <c r="A44" s="14">
         <v>13519083633</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -17091,7 +20386,7 @@
       <c r="A45" s="14">
         <v>13521690981</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17099,7 +20394,7 @@
       <c r="A46" s="14">
         <v>13546886639</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -17107,7 +20402,7 @@
       <c r="A47" s="14">
         <v>13633696711</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17115,7 +20410,7 @@
       <c r="A48" s="14">
         <v>13993852417</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -17123,7 +20418,7 @@
       <c r="A49" s="14">
         <v>15131828567</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17131,7 +20426,7 @@
       <c r="A50" s="14">
         <v>15264711001</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17139,7 +20434,7 @@
       <c r="A51" s="14">
         <v>15264711296</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17147,7 +20442,7 @@
       <c r="A52" s="14">
         <v>15393630594</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17155,7 +20450,7 @@
       <c r="A53" s="14">
         <v>15633523066</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -17163,7 +20458,7 @@
       <c r="A54" s="14">
         <v>15645919316</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17171,7 +20466,7 @@
       <c r="A55" s="14">
         <v>15697680921</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17179,7 +20474,7 @@
       <c r="A56" s="14">
         <v>15698229041</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17187,7 +20482,7 @@
       <c r="A57" s="14">
         <v>15699770933</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17195,7 +20490,7 @@
       <c r="A58" s="14">
         <v>15949806339</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -17203,7 +20498,7 @@
       <c r="A59" s="14">
         <v>15981953127</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17211,7 +20506,7 @@
       <c r="A60" s="14">
         <v>17097224268</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17219,7 +20514,7 @@
       <c r="A61" s="14">
         <v>17505106529</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="18">
         <v>132623</v>
       </c>
     </row>
@@ -17227,15 +20522,15 @@
       <c r="A62" s="14">
         <v>17612746321</v>
       </c>
-      <c r="B62" s="14">
-        <v>123456321654</v>
+      <c r="B62" s="18" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15">
       <c r="A63" s="14">
         <v>17753747930</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B63" s="18">
         <v>8642569</v>
       </c>
     </row>
@@ -17243,7 +20538,7 @@
       <c r="A64" s="14">
         <v>17757449525</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17251,7 +20546,7 @@
       <c r="A65" s="14">
         <v>18131970041</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17259,7 +20554,7 @@
       <c r="A66" s="14">
         <v>18232902912</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -17267,7 +20562,7 @@
       <c r="A67" s="14">
         <v>18246626742</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -17275,7 +20570,7 @@
       <c r="A68" s="14">
         <v>18253251389</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B68" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17283,7 +20578,7 @@
       <c r="A69" s="14">
         <v>18382394514</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17291,7 +20586,7 @@
       <c r="A70" s="14">
         <v>18810320392</v>
       </c>
-      <c r="B70" s="14">
+      <c r="B70" s="18">
         <v>12345678</v>
       </c>
     </row>
@@ -17299,7 +20594,7 @@
       <c r="A71" s="14">
         <v>18863572962</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B71" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17307,7 +20602,7 @@
       <c r="A72" s="14">
         <v>18946959184</v>
       </c>
-      <c r="B72" s="14">
+      <c r="B72" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17315,7 +20610,7 @@
       <c r="A73" s="14">
         <v>18967839427</v>
       </c>
-      <c r="B73" s="14">
+      <c r="B73" s="18">
         <v>123456</v>
       </c>
     </row>
@@ -17323,7 +20618,7 @@
       <c r="A74" s="14">
         <v>15635316166</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17331,7 +20626,7 @@
       <c r="A75" s="14">
         <v>13969577793</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17339,7 +20634,7 @@
       <c r="A76" s="14">
         <v>15535874823</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17347,7 +20642,7 @@
       <c r="A77" s="14">
         <v>15525146023</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17355,7 +20650,7 @@
       <c r="A78" s="14">
         <v>15582882641</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17363,7 +20658,7 @@
       <c r="A79" s="14">
         <v>15588159966</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17371,7 +20666,7 @@
       <c r="A80" s="14">
         <v>18909564220</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17379,7 +20674,7 @@
       <c r="A81" s="14">
         <v>15535890431</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17387,7 +20682,7 @@
       <c r="A82" s="14">
         <v>15303529430</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17395,7 +20690,7 @@
       <c r="A83" s="14">
         <v>15535486077</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17403,7 +20698,7 @@
       <c r="A84" s="14">
         <v>15834343940</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17411,7 +20706,7 @@
       <c r="A85" s="14">
         <v>13895490886</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17419,7 +20714,7 @@
       <c r="A86" s="14">
         <v>15081664435</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17427,7 +20722,7 @@
       <c r="A87" s="14">
         <v>13781072791</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17435,7 +20730,7 @@
       <c r="A88" s="14">
         <v>15330512791</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17443,7 +20738,7 @@
       <c r="A89" s="14">
         <v>17031887830</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17451,7 +20746,7 @@
       <c r="A90" s="14">
         <v>13283936032</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17459,7 +20754,7 @@
       <c r="A91" s="14">
         <v>15046800490</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17467,7 +20762,7 @@
       <c r="A92" s="14">
         <v>15081820867</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17475,7 +20770,7 @@
       <c r="A93" s="14">
         <v>13831322890</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17483,7 +20778,7 @@
       <c r="A94" s="14">
         <v>18434763969</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17491,7 +20786,7 @@
       <c r="A95" s="14">
         <v>15035399985</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17499,7 +20794,7 @@
       <c r="A96" s="14">
         <v>18291130651</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17507,7 +20802,7 @@
       <c r="A97" s="14">
         <v>13220790090</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17515,7 +20810,7 @@
       <c r="A98" s="14">
         <v>15003443253</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17523,7 +20818,7 @@
       <c r="A99" s="14">
         <v>13676343367</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17531,7 +20826,7 @@
       <c r="A100" s="14">
         <v>15257918657</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17539,7 +20834,7 @@
       <c r="A101" s="14">
         <v>15505201939</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17547,7 +20842,7 @@
       <c r="A102" s="14">
         <v>18831099037</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17555,7 +20850,7 @@
       <c r="A103" s="14">
         <v>15039298864</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17563,7 +20858,7 @@
       <c r="A104" s="14">
         <v>13839228541</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17571,7 +20866,7 @@
       <c r="A105" s="14">
         <v>18818426811</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17579,7 +20874,7 @@
       <c r="A106" s="14">
         <v>15257918657</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17587,7 +20882,7 @@
       <c r="A107" s="14">
         <v>18331375226</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17601,4 +20896,1374 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M55"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="40">
+      <c r="A1" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>975</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2" s="14">
+        <f>COUNTIF(C$2:C$100,C2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G3" s="14">
+        <f t="shared" ref="G3:G51" si="0">COUNTIF(C$2:C$100,C3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G4" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>899</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>915</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>920</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
+      <c r="A11" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>923</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15">
+      <c r="A15" s="14" t="s">
+        <v>936</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>936</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" s="14" t="s">
+        <v>938</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>938</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G16" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30">
+      <c r="A17" s="14" t="s">
+        <v>940</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>940</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15">
+      <c r="A18" s="14" t="s">
+        <v>942</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>942</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>943</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30">
+      <c r="A19" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15">
+      <c r="A20" s="14" t="s">
+        <v>958</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>958</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>959</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="30">
+      <c r="A21" s="14" t="s">
+        <v>962</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>962</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>963</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G21" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30">
+      <c r="A22" s="14" t="s">
+        <v>967</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>967</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>968</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15">
+      <c r="A23" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>972</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>973</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30">
+      <c r="A24" s="14" t="s">
+        <v>946</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>947</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>946</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="G24" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15">
+      <c r="A25" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>951</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>952</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15">
+      <c r="A26" s="14" t="s">
+        <v>955</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>956</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>955</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>957</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="G26" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15">
+      <c r="A27" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>961</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="G27" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15">
+      <c r="A28" s="14" t="s">
+        <v>964</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>965</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>964</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>966</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="G28" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15">
+      <c r="A29" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>979</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>911</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>912</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="G29" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" ht="15">
+      <c r="A30" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>916</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>917</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="G30" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:13" ht="15">
+      <c r="A31" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>918</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>919</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="G31" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" ht="30">
+      <c r="A32" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>927</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="G32" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="1:13" ht="30">
+      <c r="A33" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>981</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>928</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="G33" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="1:13" ht="30">
+      <c r="A34" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="G34" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" ht="30">
+      <c r="A35" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>981</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="G35" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" ht="30">
+      <c r="A36" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="G36" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="1:13" ht="30">
+      <c r="A37" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>982</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>932</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="G37" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" ht="30">
+      <c r="A38" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>981</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>933</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="G38" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" ht="30">
+      <c r="A39" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>934</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="G39" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="1:13" ht="30">
+      <c r="A40" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>935</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="G40" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="1:13" ht="15">
+      <c r="A41" s="14" t="s">
+        <v>953</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>983</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>953</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>954</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="G41" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="1:13" ht="15">
+      <c r="A42" s="14" t="s">
+        <v>969</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>916</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>969</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="G42" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:13" ht="30">
+      <c r="A43" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="G43" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="30">
+      <c r="A44" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="G44" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15">
+      <c r="A45" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>901</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="G45" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="30">
+      <c r="A46" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>902</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>903</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="G46" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="30">
+      <c r="A47" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>904</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="G47" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="30">
+      <c r="A48" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>905</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="G48" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15">
+      <c r="A49" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="G49" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15">
+      <c r="A50" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>910</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="G50" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30">
+      <c r="A51" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>902</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="G51" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+    </row>
+    <row r="53" spans="1:7" ht="15">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+    </row>
+    <row r="54" spans="1:7" ht="15">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+    </row>
+    <row r="55" spans="1:7" ht="15">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F55">
+    <sortCondition ref="F1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junliang/server/www/maotaiServer/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24900" windowHeight="15600" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="28800" yWindow="-940" windowWidth="38400" windowHeight="21140" tabRatio="500" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="所有账号" sheetId="1" r:id="rId1"/>
@@ -20,13 +25,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">所有账号!$A$1:$S$159</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">新号!$A$1:$E$105</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -96,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3895" uniqueCount="989">
   <si>
     <t>用户名</t>
     <rPh sb="0" eb="1">
@@ -3215,6 +3220,23 @@
   </si>
   <si>
     <t>这些为失败的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买成功</t>
+    <rPh sb="0" eb="1">
+      <t>gou'mai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'ogng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6瓶</t>
+    <rPh sb="1" eb="2">
+      <t>ping</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3610,9 +3632,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3622,11 +3641,15 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="145">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3699,79 +3722,78 @@
     <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4038,7 +4060,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4052,25 +4074,25 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="3"/>
+    <col min="1" max="1" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="3"/>
     <col min="8" max="8" width="9" style="3" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" style="3"/>
-    <col min="11" max="11" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="11.5" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="3"/>
-    <col min="14" max="14" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="3"/>
+    <col min="13" max="13" width="10.83203125" style="3"/>
+    <col min="14" max="14" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="12" customFormat="1" ht="32" customHeight="1">
+    <row r="1" spans="1:37" s="12" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>249</v>
       </c>
@@ -4129,7 +4151,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="45">
+    <row r="2" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>278</v>
       </c>
@@ -4186,7 +4208,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="45">
+    <row r="3" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>300</v>
       </c>
@@ -4261,7 +4283,7 @@
       <c r="AJ3" s="14"/>
       <c r="AK3" s="14"/>
     </row>
-    <row r="4" spans="1:37" ht="45">
+    <row r="4" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>328</v>
       </c>
@@ -4336,7 +4358,7 @@
       <c r="AJ4" s="14"/>
       <c r="AK4" s="14"/>
     </row>
-    <row r="5" spans="1:37" ht="45">
+    <row r="5" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>354</v>
       </c>
@@ -4411,7 +4433,7 @@
       <c r="AJ5" s="14"/>
       <c r="AK5" s="14"/>
     </row>
-    <row r="6" spans="1:37" ht="45">
+    <row r="6" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>378</v>
       </c>
@@ -4486,7 +4508,7 @@
       <c r="AJ6" s="14"/>
       <c r="AK6" s="14"/>
     </row>
-    <row r="7" spans="1:37" s="16" customFormat="1" ht="45">
+    <row r="7" spans="1:37" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>382</v>
       </c>
@@ -4561,7 +4583,7 @@
       <c r="AJ7" s="14"/>
       <c r="AK7" s="14"/>
     </row>
-    <row r="8" spans="1:37" ht="45">
+    <row r="8" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>396</v>
       </c>
@@ -4636,7 +4658,7 @@
       <c r="AJ8" s="14"/>
       <c r="AK8" s="14"/>
     </row>
-    <row r="9" spans="1:37" ht="45">
+    <row r="9" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>408</v>
       </c>
@@ -4711,7 +4733,7 @@
       <c r="AJ9" s="14"/>
       <c r="AK9" s="14"/>
     </row>
-    <row r="10" spans="1:37" ht="45">
+    <row r="10" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>412</v>
       </c>
@@ -4786,7 +4808,7 @@
       <c r="AJ10" s="14"/>
       <c r="AK10" s="14"/>
     </row>
-    <row r="11" spans="1:37" ht="45">
+    <row r="11" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>414</v>
       </c>
@@ -4861,7 +4883,7 @@
       <c r="AJ11" s="14"/>
       <c r="AK11" s="14"/>
     </row>
-    <row r="12" spans="1:37" ht="45">
+    <row r="12" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>420</v>
       </c>
@@ -4936,7 +4958,7 @@
       <c r="AJ12" s="14"/>
       <c r="AK12" s="14"/>
     </row>
-    <row r="13" spans="1:37" s="16" customFormat="1" ht="45">
+    <row r="13" spans="1:37" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>422</v>
       </c>
@@ -5011,7 +5033,7 @@
       <c r="AJ13" s="14"/>
       <c r="AK13" s="14"/>
     </row>
-    <row r="14" spans="1:37" ht="45">
+    <row r="14" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>432</v>
       </c>
@@ -5086,7 +5108,7 @@
       <c r="AJ14" s="14"/>
       <c r="AK14" s="14"/>
     </row>
-    <row r="15" spans="1:37" ht="45">
+    <row r="15" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>461</v>
       </c>
@@ -5161,7 +5183,7 @@
       <c r="AJ15" s="14"/>
       <c r="AK15" s="14"/>
     </row>
-    <row r="16" spans="1:37" ht="409">
+    <row r="16" spans="1:37" ht="409" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>469</v>
       </c>
@@ -5236,7 +5258,7 @@
       <c r="AJ16" s="14"/>
       <c r="AK16" s="14"/>
     </row>
-    <row r="17" spans="1:37" ht="45">
+    <row r="17" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>484</v>
       </c>
@@ -5311,7 +5333,7 @@
       <c r="AJ17" s="14"/>
       <c r="AK17" s="14"/>
     </row>
-    <row r="18" spans="1:37" ht="409">
+    <row r="18" spans="1:37" ht="409" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>533</v>
       </c>
@@ -5386,7 +5408,7 @@
       <c r="AJ18" s="14"/>
       <c r="AK18" s="14"/>
     </row>
-    <row r="19" spans="1:37" ht="45">
+    <row r="19" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>545</v>
       </c>
@@ -5461,7 +5483,7 @@
       <c r="AJ19" s="14"/>
       <c r="AK19" s="14"/>
     </row>
-    <row r="20" spans="1:37" ht="45">
+    <row r="20" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>562</v>
       </c>
@@ -5536,7 +5558,7 @@
       <c r="AJ20" s="14"/>
       <c r="AK20" s="14"/>
     </row>
-    <row r="21" spans="1:37" s="16" customFormat="1" ht="409">
+    <row r="21" spans="1:37" s="16" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>575</v>
       </c>
@@ -5611,7 +5633,7 @@
       <c r="AJ21" s="14"/>
       <c r="AK21" s="14"/>
     </row>
-    <row r="22" spans="1:37" ht="45">
+    <row r="22" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>425</v>
       </c>
@@ -5686,7 +5708,7 @@
       <c r="AJ22" s="14"/>
       <c r="AK22" s="14"/>
     </row>
-    <row r="23" spans="1:37" ht="45">
+    <row r="23" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>456</v>
       </c>
@@ -5761,7 +5783,7 @@
       <c r="AJ23" s="14"/>
       <c r="AK23" s="14"/>
     </row>
-    <row r="24" spans="1:37" ht="30">
+    <row r="24" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>662</v>
       </c>
@@ -5836,7 +5858,7 @@
       <c r="AJ24" s="14"/>
       <c r="AK24" s="14"/>
     </row>
-    <row r="25" spans="1:37" ht="409">
+    <row r="25" spans="1:37" ht="409" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>665</v>
       </c>
@@ -5911,7 +5933,7 @@
       <c r="AJ25" s="14"/>
       <c r="AK25" s="14"/>
     </row>
-    <row r="26" spans="1:37" ht="30">
+    <row r="26" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>668</v>
       </c>
@@ -5986,7 +6008,7 @@
       <c r="AJ26" s="14"/>
       <c r="AK26" s="14"/>
     </row>
-    <row r="27" spans="1:37" ht="409">
+    <row r="27" spans="1:37" ht="409" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>672</v>
       </c>
@@ -6061,7 +6083,7 @@
       <c r="AJ27" s="14"/>
       <c r="AK27" s="14"/>
     </row>
-    <row r="28" spans="1:37" s="16" customFormat="1" ht="409">
+    <row r="28" spans="1:37" s="16" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>677</v>
       </c>
@@ -6136,7 +6158,7 @@
       <c r="AJ28" s="14"/>
       <c r="AK28" s="14"/>
     </row>
-    <row r="29" spans="1:37" s="16" customFormat="1" ht="409">
+    <row r="29" spans="1:37" s="16" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>680</v>
       </c>
@@ -6211,7 +6233,7 @@
       <c r="AJ29" s="14"/>
       <c r="AK29" s="14"/>
     </row>
-    <row r="30" spans="1:37" ht="409">
+    <row r="30" spans="1:37" ht="409" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>683</v>
       </c>
@@ -6286,7 +6308,7 @@
       <c r="AJ30" s="14"/>
       <c r="AK30" s="14"/>
     </row>
-    <row r="31" spans="1:37" ht="30">
+    <row r="31" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>686</v>
       </c>
@@ -6361,7 +6383,7 @@
       <c r="AJ31" s="14"/>
       <c r="AK31" s="14"/>
     </row>
-    <row r="32" spans="1:37" ht="409">
+    <row r="32" spans="1:37" ht="409" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>689</v>
       </c>
@@ -6436,7 +6458,7 @@
       <c r="AJ32" s="14"/>
       <c r="AK32" s="14"/>
     </row>
-    <row r="33" spans="1:37" s="16" customFormat="1" ht="30">
+    <row r="33" spans="1:37" s="16" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>692</v>
       </c>
@@ -6511,7 +6533,7 @@
       <c r="AJ33" s="14"/>
       <c r="AK33" s="14"/>
     </row>
-    <row r="34" spans="1:37" ht="409">
+    <row r="34" spans="1:37" ht="409" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>695</v>
       </c>
@@ -6586,7 +6608,7 @@
       <c r="AJ34" s="14"/>
       <c r="AK34" s="14"/>
     </row>
-    <row r="35" spans="1:37" ht="30">
+    <row r="35" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>698</v>
       </c>
@@ -6661,7 +6683,7 @@
       <c r="AJ35" s="14"/>
       <c r="AK35" s="14"/>
     </row>
-    <row r="36" spans="1:37" s="16" customFormat="1" ht="409">
+    <row r="36" spans="1:37" s="16" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>701</v>
       </c>
@@ -6736,7 +6758,7 @@
       <c r="AJ36" s="14"/>
       <c r="AK36" s="14"/>
     </row>
-    <row r="37" spans="1:37" s="16" customFormat="1" ht="409">
+    <row r="37" spans="1:37" s="16" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>705</v>
       </c>
@@ -6811,7 +6833,7 @@
       <c r="AJ37" s="14"/>
       <c r="AK37" s="14"/>
     </row>
-    <row r="38" spans="1:37" s="16" customFormat="1" ht="30">
+    <row r="38" spans="1:37" s="16" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>709</v>
       </c>
@@ -6886,7 +6908,7 @@
       <c r="AJ38" s="14"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" ht="409">
+    <row r="39" spans="1:37" ht="409" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>713</v>
       </c>
@@ -6961,7 +6983,7 @@
       <c r="AJ39" s="14"/>
       <c r="AK39" s="14"/>
     </row>
-    <row r="40" spans="1:37" s="16" customFormat="1" ht="409">
+    <row r="40" spans="1:37" s="16" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>721</v>
       </c>
@@ -7036,7 +7058,7 @@
       <c r="AJ40" s="14"/>
       <c r="AK40" s="14"/>
     </row>
-    <row r="41" spans="1:37" s="16" customFormat="1" ht="30">
+    <row r="41" spans="1:37" s="16" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>726</v>
       </c>
@@ -7111,7 +7133,7 @@
       <c r="AJ41" s="14"/>
       <c r="AK41" s="14"/>
     </row>
-    <row r="42" spans="1:37" ht="30">
+    <row r="42" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>729</v>
       </c>
@@ -7186,7 +7208,7 @@
       <c r="AJ42" s="14"/>
       <c r="AK42" s="14"/>
     </row>
-    <row r="43" spans="1:37" ht="30">
+    <row r="43" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>732</v>
       </c>
@@ -7261,7 +7283,7 @@
       <c r="AJ43" s="14"/>
       <c r="AK43" s="14"/>
     </row>
-    <row r="44" spans="1:37" ht="30">
+    <row r="44" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>735</v>
       </c>
@@ -7336,7 +7358,7 @@
       <c r="AJ44" s="14"/>
       <c r="AK44" s="14"/>
     </row>
-    <row r="45" spans="1:37" ht="30">
+    <row r="45" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>738</v>
       </c>
@@ -7411,7 +7433,7 @@
       <c r="AJ45" s="14"/>
       <c r="AK45" s="14"/>
     </row>
-    <row r="46" spans="1:37" ht="45">
+    <row r="46" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>741</v>
       </c>
@@ -7486,7 +7508,7 @@
       <c r="AJ46" s="14"/>
       <c r="AK46" s="14"/>
     </row>
-    <row r="47" spans="1:37" ht="409">
+    <row r="47" spans="1:37" ht="409" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>610</v>
       </c>
@@ -7561,7 +7583,7 @@
       <c r="AJ47" s="14"/>
       <c r="AK47" s="14"/>
     </row>
-    <row r="48" spans="1:37" ht="409">
+    <row r="48" spans="1:37" ht="409" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>615</v>
       </c>
@@ -7636,7 +7658,7 @@
       <c r="AJ48" s="14"/>
       <c r="AK48" s="14"/>
     </row>
-    <row r="49" spans="1:37" ht="45">
+    <row r="49" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>618</v>
       </c>
@@ -7711,7 +7733,7 @@
       <c r="AJ49" s="14"/>
       <c r="AK49" s="14"/>
     </row>
-    <row r="50" spans="1:37" ht="45">
+    <row r="50" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>623</v>
       </c>
@@ -7786,7 +7808,7 @@
       <c r="AJ50" s="14"/>
       <c r="AK50" s="14"/>
     </row>
-    <row r="51" spans="1:37" s="16" customFormat="1" ht="409">
+    <row r="51" spans="1:37" s="16" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>628</v>
       </c>
@@ -7861,7 +7883,7 @@
       <c r="AJ51" s="14"/>
       <c r="AK51" s="14"/>
     </row>
-    <row r="52" spans="1:37" ht="409">
+    <row r="52" spans="1:37" ht="409" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>632</v>
       </c>
@@ -7936,7 +7958,7 @@
       <c r="AJ52" s="14"/>
       <c r="AK52" s="14"/>
     </row>
-    <row r="53" spans="1:37" ht="45">
+    <row r="53" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>635</v>
       </c>
@@ -8011,7 +8033,7 @@
       <c r="AJ53" s="14"/>
       <c r="AK53" s="14"/>
     </row>
-    <row r="54" spans="1:37" ht="45">
+    <row r="54" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>581</v>
       </c>
@@ -8086,7 +8108,7 @@
       <c r="AJ54" s="14"/>
       <c r="AK54" s="14"/>
     </row>
-    <row r="55" spans="1:37" ht="45">
+    <row r="55" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>587</v>
       </c>
@@ -8161,7 +8183,7 @@
       <c r="AJ55" s="14"/>
       <c r="AK55" s="14"/>
     </row>
-    <row r="56" spans="1:37" ht="45">
+    <row r="56" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>591</v>
       </c>
@@ -8236,7 +8258,7 @@
       <c r="AJ56" s="14"/>
       <c r="AK56" s="14"/>
     </row>
-    <row r="57" spans="1:37" s="16" customFormat="1" ht="45">
+    <row r="57" spans="1:37" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>599</v>
       </c>
@@ -8311,7 +8333,7 @@
       <c r="AJ57" s="14"/>
       <c r="AK57" s="14"/>
     </row>
-    <row r="58" spans="1:37" ht="45">
+    <row r="58" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>603</v>
       </c>
@@ -8386,7 +8408,7 @@
       <c r="AJ58" s="14"/>
       <c r="AK58" s="14"/>
     </row>
-    <row r="59" spans="1:37" ht="30">
+    <row r="59" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>607</v>
       </c>
@@ -8461,7 +8483,7 @@
       <c r="AJ59" s="14"/>
       <c r="AK59" s="14"/>
     </row>
-    <row r="60" spans="1:37" ht="45">
+    <row r="60" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>264</v>
       </c>
@@ -8536,7 +8558,7 @@
       <c r="AJ60" s="14"/>
       <c r="AK60" s="14"/>
     </row>
-    <row r="61" spans="1:37" ht="45">
+    <row r="61" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>490</v>
       </c>
@@ -8611,7 +8633,7 @@
       <c r="AJ61" s="14"/>
       <c r="AK61" s="14"/>
     </row>
-    <row r="62" spans="1:37" ht="45">
+    <row r="62" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>553</v>
       </c>
@@ -8686,7 +8708,7 @@
       <c r="AJ62" s="14"/>
       <c r="AK62" s="14"/>
     </row>
-    <row r="63" spans="1:37" ht="45">
+    <row r="63" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>294</v>
       </c>
@@ -8761,7 +8783,7 @@
       <c r="AJ63" s="14"/>
       <c r="AK63" s="14"/>
     </row>
-    <row r="64" spans="1:37" ht="45">
+    <row r="64" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>304</v>
       </c>
@@ -8836,7 +8858,7 @@
       <c r="AJ64" s="14"/>
       <c r="AK64" s="14"/>
     </row>
-    <row r="65" spans="1:37" ht="45">
+    <row r="65" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>310</v>
       </c>
@@ -8911,7 +8933,7 @@
       <c r="AJ65" s="14"/>
       <c r="AK65" s="14"/>
     </row>
-    <row r="66" spans="1:37" ht="45">
+    <row r="66" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>314</v>
       </c>
@@ -8986,7 +9008,7 @@
       <c r="AJ66" s="14"/>
       <c r="AK66" s="14"/>
     </row>
-    <row r="67" spans="1:37" ht="45">
+    <row r="67" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>319</v>
       </c>
@@ -9061,7 +9083,7 @@
       <c r="AJ67" s="14"/>
       <c r="AK67" s="14"/>
     </row>
-    <row r="68" spans="1:37" ht="45">
+    <row r="68" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>323</v>
       </c>
@@ -9136,7 +9158,7 @@
       <c r="AJ68" s="14"/>
       <c r="AK68" s="14"/>
     </row>
-    <row r="69" spans="1:37" ht="45">
+    <row r="69" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>332</v>
       </c>
@@ -9211,7 +9233,7 @@
       <c r="AJ69" s="14"/>
       <c r="AK69" s="14"/>
     </row>
-    <row r="70" spans="1:37" ht="45">
+    <row r="70" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
         <v>336</v>
       </c>
@@ -9286,7 +9308,7 @@
       <c r="AJ70" s="14"/>
       <c r="AK70" s="14"/>
     </row>
-    <row r="71" spans="1:37" ht="45">
+    <row r="71" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>340</v>
       </c>
@@ -9361,7 +9383,7 @@
       <c r="AJ71" s="14"/>
       <c r="AK71" s="14"/>
     </row>
-    <row r="72" spans="1:37" ht="45">
+    <row r="72" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>345</v>
       </c>
@@ -9436,7 +9458,7 @@
       <c r="AJ72" s="14"/>
       <c r="AK72" s="14"/>
     </row>
-    <row r="73" spans="1:37" ht="45">
+    <row r="73" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
         <v>350</v>
       </c>
@@ -9511,7 +9533,7 @@
       <c r="AJ73" s="14"/>
       <c r="AK73" s="14"/>
     </row>
-    <row r="74" spans="1:37" ht="45">
+    <row r="74" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
         <v>358</v>
       </c>
@@ -9586,7 +9608,7 @@
       <c r="AJ74" s="14"/>
       <c r="AK74" s="14"/>
     </row>
-    <row r="75" spans="1:37" ht="45">
+    <row r="75" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>365</v>
       </c>
@@ -9661,7 +9683,7 @@
       <c r="AJ75" s="14"/>
       <c r="AK75" s="14"/>
     </row>
-    <row r="76" spans="1:37" ht="45">
+    <row r="76" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>369</v>
       </c>
@@ -9736,7 +9758,7 @@
       <c r="AJ76" s="14"/>
       <c r="AK76" s="14"/>
     </row>
-    <row r="77" spans="1:37" ht="45">
+    <row r="77" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>374</v>
       </c>
@@ -9811,7 +9833,7 @@
       <c r="AJ77" s="14"/>
       <c r="AK77" s="14"/>
     </row>
-    <row r="78" spans="1:37" ht="45">
+    <row r="78" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
         <v>386</v>
       </c>
@@ -9886,7 +9908,7 @@
       <c r="AJ78" s="14"/>
       <c r="AK78" s="14"/>
     </row>
-    <row r="79" spans="1:37" ht="45">
+    <row r="79" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>390</v>
       </c>
@@ -9961,7 +9983,7 @@
       <c r="AJ79" s="14"/>
       <c r="AK79" s="14"/>
     </row>
-    <row r="80" spans="1:37" ht="45">
+    <row r="80" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>400</v>
       </c>
@@ -10036,7 +10058,7 @@
       <c r="AJ80" s="14"/>
       <c r="AK80" s="14"/>
     </row>
-    <row r="81" spans="1:37" ht="45">
+    <row r="81" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
         <v>404</v>
       </c>
@@ -10111,7 +10133,7 @@
       <c r="AJ81" s="14"/>
       <c r="AK81" s="14"/>
     </row>
-    <row r="82" spans="1:37" ht="45">
+    <row r="82" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>416</v>
       </c>
@@ -10186,7 +10208,7 @@
       <c r="AJ82" s="14"/>
       <c r="AK82" s="14"/>
     </row>
-    <row r="83" spans="1:37" ht="45">
+    <row r="83" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
         <v>436</v>
       </c>
@@ -10261,7 +10283,7 @@
       <c r="AJ83" s="14"/>
       <c r="AK83" s="14"/>
     </row>
-    <row r="84" spans="1:37" ht="45">
+    <row r="84" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>440</v>
       </c>
@@ -10336,7 +10358,7 @@
       <c r="AJ84" s="14"/>
       <c r="AK84" s="14"/>
     </row>
-    <row r="85" spans="1:37" ht="45">
+    <row r="85" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>444</v>
       </c>
@@ -10411,7 +10433,7 @@
       <c r="AJ85" s="14"/>
       <c r="AK85" s="14"/>
     </row>
-    <row r="86" spans="1:37" ht="45">
+    <row r="86" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
         <v>448</v>
       </c>
@@ -10486,7 +10508,7 @@
       <c r="AJ86" s="14"/>
       <c r="AK86" s="14"/>
     </row>
-    <row r="87" spans="1:37" ht="45">
+    <row r="87" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
         <v>452</v>
       </c>
@@ -10561,7 +10583,7 @@
       <c r="AJ87" s="14"/>
       <c r="AK87" s="14"/>
     </row>
-    <row r="88" spans="1:37" ht="45">
+    <row r="88" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
         <v>465</v>
       </c>
@@ -10636,7 +10658,7 @@
       <c r="AJ88" s="14"/>
       <c r="AK88" s="14"/>
     </row>
-    <row r="89" spans="1:37" ht="45">
+    <row r="89" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
         <v>475</v>
       </c>
@@ -10711,7 +10733,7 @@
       <c r="AJ89" s="14"/>
       <c r="AK89" s="14"/>
     </row>
-    <row r="90" spans="1:37" ht="45">
+    <row r="90" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>479</v>
       </c>
@@ -10786,7 +10808,7 @@
       <c r="AJ90" s="14"/>
       <c r="AK90" s="14"/>
     </row>
-    <row r="91" spans="1:37" ht="45">
+    <row r="91" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
         <v>486</v>
       </c>
@@ -10861,7 +10883,7 @@
       <c r="AJ91" s="14"/>
       <c r="AK91" s="14"/>
     </row>
-    <row r="92" spans="1:37" ht="45">
+    <row r="92" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>494</v>
       </c>
@@ -10936,7 +10958,7 @@
       <c r="AJ92" s="14"/>
       <c r="AK92" s="14"/>
     </row>
-    <row r="93" spans="1:37" ht="45">
+    <row r="93" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
         <v>498</v>
       </c>
@@ -10993,7 +11015,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="30">
+    <row r="94" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>503</v>
       </c>
@@ -11050,7 +11072,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="45">
+    <row r="95" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
         <v>505</v>
       </c>
@@ -11107,7 +11129,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="45">
+    <row r="96" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
         <v>509</v>
       </c>
@@ -11164,7 +11186,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="45">
+    <row r="97" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
         <v>513</v>
       </c>
@@ -11221,7 +11243,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="45">
+    <row r="98" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
         <v>517</v>
       </c>
@@ -11278,7 +11300,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="45">
+    <row r="99" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
         <v>519</v>
       </c>
@@ -11335,7 +11357,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="45">
+    <row r="100" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
         <v>523</v>
       </c>
@@ -11392,7 +11414,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="45">
+    <row r="101" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
         <v>527</v>
       </c>
@@ -11449,7 +11471,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="45">
+    <row r="102" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
         <v>529</v>
       </c>
@@ -11506,7 +11528,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="45">
+    <row r="103" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
         <v>543</v>
       </c>
@@ -11563,7 +11585,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="45">
+    <row r="104" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
         <v>549</v>
       </c>
@@ -11620,7 +11642,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="45">
+    <row r="105" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
         <v>557</v>
       </c>
@@ -11677,7 +11699,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="45">
+    <row r="106" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
         <v>566</v>
       </c>
@@ -11734,7 +11756,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="45">
+    <row r="107" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
         <v>570</v>
       </c>
@@ -11791,7 +11813,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="409">
+    <row r="108" spans="1:19" ht="409" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
         <v>574</v>
       </c>
@@ -11848,7 +11870,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="30">
+    <row r="159" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
         <v>289</v>
       </c>
@@ -11913,11 +11935,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11930,17 +11947,17 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="2" max="2" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11954,7 +11971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>18593078244</v>
       </c>
@@ -11966,7 +11983,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>15635316166</v>
       </c>
@@ -11978,7 +11995,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>15535874373</v>
       </c>
@@ -11990,7 +12007,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>13052107547</v>
       </c>
@@ -12002,7 +12019,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>13969577793</v>
       </c>
@@ -12014,7 +12031,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>15835843109</v>
       </c>
@@ -12026,7 +12043,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>15535874823</v>
       </c>
@@ -12038,7 +12055,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>15525146023</v>
       </c>
@@ -12050,7 +12067,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>15808729122</v>
       </c>
@@ -12062,7 +12079,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>17331831740</v>
       </c>
@@ -12074,7 +12091,7 @@
         <v>预约审核成功</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>18735426089</v>
       </c>
@@ -12086,7 +12103,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>18734572393</v>
       </c>
@@ -12098,7 +12115,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>15582882641</v>
       </c>
@@ -12110,7 +12127,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13103589823</v>
       </c>
@@ -12122,7 +12139,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15564917183</v>
       </c>
@@ -12134,7 +12151,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15588159966</v>
       </c>
@@ -12146,7 +12163,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>13280502801</v>
       </c>
@@ -12158,7 +12175,7 @@
         <v>预约审核成功</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>13619167945</v>
       </c>
@@ -12170,7 +12187,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18545086596</v>
       </c>
@@ -12182,7 +12199,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>17732510974</v>
       </c>
@@ -12194,7 +12211,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>18241816845</v>
       </c>
@@ -12206,7 +12223,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>15682637686</v>
       </c>
@@ -12218,7 +12235,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>15725878435</v>
       </c>
@@ -12230,7 +12247,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>15934072914</v>
       </c>
@@ -12242,7 +12259,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>18909564220</v>
       </c>
@@ -12254,7 +12271,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>15660773191</v>
       </c>
@@ -12266,7 +12283,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>13843910857</v>
       </c>
@@ -12278,7 +12295,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>17073020029</v>
       </c>
@@ -12290,7 +12307,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>15386030922</v>
       </c>
@@ -12302,7 +12319,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>15535890431</v>
       </c>
@@ -12314,7 +12331,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>15303529430</v>
       </c>
@@ -12326,7 +12343,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>17635568238</v>
       </c>
@@ -12338,7 +12355,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>15535486077</v>
       </c>
@@ -12350,7 +12367,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>18754955373</v>
       </c>
@@ -12362,7 +12379,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>13969995407</v>
       </c>
@@ -12374,7 +12391,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>18154567585</v>
       </c>
@@ -12386,7 +12403,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>13792814063</v>
       </c>
@@ -12398,7 +12415,7 @@
         <v>预约审核成功</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>15834343940</v>
       </c>
@@ -12410,7 +12427,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>13895490886</v>
       </c>
@@ -12422,7 +12439,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>15081664435</v>
       </c>
@@ -12434,7 +12451,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>17196748368</v>
       </c>
@@ -12446,7 +12463,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>13781072791</v>
       </c>
@@ -12458,7 +12475,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>15716559528</v>
       </c>
@@ -12470,7 +12487,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>15121952364</v>
       </c>
@@ -12482,7 +12499,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>15330512791</v>
       </c>
@@ -12494,7 +12511,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>17031887830</v>
       </c>
@@ -12506,7 +12523,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>15141626707</v>
       </c>
@@ -12518,7 +12535,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>15042695614</v>
       </c>
@@ -12530,7 +12547,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>13283936032</v>
       </c>
@@ -12542,7 +12559,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>15076039887</v>
       </c>
@@ -12554,7 +12571,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>15533586119</v>
       </c>
@@ -12566,7 +12583,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>18632369087</v>
       </c>
@@ -12578,7 +12595,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>13290979032</v>
       </c>
@@ -12590,7 +12607,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>13936763461</v>
       </c>
@@ -12602,7 +12619,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>15046800490</v>
       </c>
@@ -12614,7 +12631,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>15081820867</v>
       </c>
@@ -12626,7 +12643,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>15896028013</v>
       </c>
@@ -12638,7 +12655,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>18735798509</v>
       </c>
@@ -12650,7 +12667,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>15584909806</v>
       </c>
@@ -12662,7 +12679,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>17631643045</v>
       </c>
@@ -12674,7 +12691,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>18657933371</v>
       </c>
@@ -12686,7 +12703,7 @@
         <v>预约审核成功</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>13500156546</v>
       </c>
@@ -12698,7 +12715,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>15364585915</v>
       </c>
@@ -12710,7 +12727,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>15053052761</v>
       </c>
@@ -12722,7 +12739,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>17844202122</v>
       </c>
@@ -12734,7 +12751,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>18833738332</v>
       </c>
@@ -12746,7 +12763,7 @@
         <v>预约审核成功</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>18365799221</v>
       </c>
@@ -12758,7 +12775,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>18435817238</v>
       </c>
@@ -12770,7 +12787,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>13831322890</v>
       </c>
@@ -12782,7 +12799,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>18434763969</v>
       </c>
@@ -12794,7 +12811,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>15035399985</v>
       </c>
@@ -12806,7 +12823,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>18291130651</v>
       </c>
@@ -12818,7 +12835,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>17601643138</v>
       </c>
@@ -12830,7 +12847,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>15612145727</v>
       </c>
@@ -12842,7 +12859,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>13220790090</v>
       </c>
@@ -12854,7 +12871,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>15235364989</v>
       </c>
@@ -12866,7 +12883,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>15003443253</v>
       </c>
@@ -12878,7 +12895,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>17131970724</v>
       </c>
@@ -12890,7 +12907,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>15319647574</v>
       </c>
@@ -12902,7 +12919,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>17667374197</v>
       </c>
@@ -12914,7 +12931,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>17603803317</v>
       </c>
@@ -12926,7 +12943,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>13676343367</v>
       </c>
@@ -12938,7 +12955,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>15257918657</v>
       </c>
@@ -12950,7 +12967,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>13209986285</v>
       </c>
@@ -12962,7 +12979,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>15505201939</v>
       </c>
@@ -12974,7 +12991,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>18831099037</v>
       </c>
@@ -12986,7 +13003,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>17539236327</v>
       </c>
@@ -12998,7 +13015,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>15039298864</v>
       </c>
@@ -13010,7 +13027,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>13839228541</v>
       </c>
@@ -13022,7 +13039,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>15964388967</v>
       </c>
@@ -13034,7 +13051,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>15733586109</v>
       </c>
@@ -13046,7 +13063,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>17364621646</v>
       </c>
@@ -13058,7 +13075,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>18534866149</v>
       </c>
@@ -13070,7 +13087,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>15193524480</v>
       </c>
@@ -13082,7 +13099,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>13353661484</v>
       </c>
@@ -13094,7 +13111,7 @@
         <v>预约审核成功</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>13316547635</v>
       </c>
@@ -13106,7 +13123,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>18818426811</v>
       </c>
@@ -13118,7 +13135,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>15034681449</v>
       </c>
@@ -13130,7 +13147,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>15133355337</v>
       </c>
@@ -13142,7 +13159,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>15257918657</v>
       </c>
@@ -13154,7 +13171,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>17833954615</v>
       </c>
@@ -13166,7 +13183,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>18331375226</v>
       </c>
@@ -13178,7 +13195,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>18256710448</v>
       </c>
@@ -13190,7 +13207,7 @@
         <v>未使用</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E105" s="1" t="str">
         <f>IF(COUNTIF('3月30预约审核成功'!A$3:A$8,新号!A105),"S","F")</f>
         <v>F</v>
@@ -13207,11 +13224,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13219,26 +13231,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="29" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="1"/>
+    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>755</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="22"/>
       <c r="D1" s="11" t="s">
         <v>874</v>
       </c>
@@ -13261,7 +13273,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20">
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>752</v>
       </c>
@@ -13289,7 +13301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>13280502801</v>
       </c>
@@ -13317,7 +13329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>13792814063</v>
       </c>
@@ -13345,7 +13357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>18657933371</v>
       </c>
@@ -13373,7 +13385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>18833738332</v>
       </c>
@@ -13401,7 +13413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>13353661484</v>
       </c>
@@ -13429,7 +13441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>17331831740</v>
       </c>
@@ -13457,7 +13469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="D9" s="14">
@@ -13481,7 +13493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="D10" s="14">
@@ -13505,7 +13517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="D11" s="14">
@@ -13529,7 +13541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="D12" s="14">
@@ -13553,7 +13565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="D13" s="14">
@@ -13577,7 +13589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="D14" s="14">
@@ -13601,7 +13613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="D15" s="14">
@@ -13625,7 +13637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="D16" s="14">
@@ -13649,7 +13661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="D17" s="14">
@@ -13673,7 +13685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30">
+    <row r="18" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="D18" s="14">
@@ -13697,7 +13709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30">
+    <row r="19" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="D19" s="14">
@@ -13721,7 +13733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30">
+    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="D20" s="14">
@@ -13745,7 +13757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="D21" s="14">
@@ -13769,7 +13781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="D22" s="14">
@@ -13793,7 +13805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30">
+    <row r="23" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="D23" s="14">
@@ -13817,7 +13829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30">
+    <row r="24" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="D24" s="14">
@@ -13841,7 +13853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="D25" s="14">
@@ -13865,7 +13877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="D26" s="14">
@@ -13889,7 +13901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30">
+    <row r="27" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="D27" s="14">
@@ -13913,7 +13925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="30">
+    <row r="28" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="D28" s="14">
@@ -13937,7 +13949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="D29" s="14">
@@ -13961,7 +13973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="D30" s="14">
@@ -13985,7 +13997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="30">
+    <row r="31" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="D31" s="14">
@@ -14009,7 +14021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="30">
+    <row r="32" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="D32" s="14">
@@ -14033,7 +14045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="D33" s="14">
@@ -14057,7 +14069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="D34" s="14">
@@ -14081,7 +14093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D35" s="14">
         <v>18810320392</v>
       </c>
@@ -14103,7 +14115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="D36" s="14">
         <v>18863572962</v>
       </c>
@@ -14125,7 +14137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D37" s="14">
         <v>18946959184</v>
       </c>
@@ -14147,7 +14159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="D38" s="14">
         <v>18967839427</v>
       </c>
@@ -14169,7 +14181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D39" s="14">
         <v>15582882641</v>
       </c>
@@ -14191,7 +14203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D40" s="14">
         <v>15535890431</v>
       </c>
@@ -14213,7 +14225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D41" s="14">
         <v>15535486077</v>
       </c>
@@ -14235,7 +14247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D42" s="14">
         <v>13895490886</v>
       </c>
@@ -14257,7 +14269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="D43" s="14">
         <v>15081664435</v>
       </c>
@@ -14279,7 +14291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="D44" s="14">
         <v>15330512791</v>
       </c>
@@ -14301,7 +14313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D45" s="14">
         <v>13283936032</v>
       </c>
@@ -14323,7 +14335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D46" s="14">
         <v>15081820867</v>
       </c>
@@ -14345,7 +14357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D47" s="14">
         <v>15035399985</v>
       </c>
@@ -14367,7 +14379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D48" s="14">
         <v>18291130651</v>
       </c>
@@ -14389,7 +14401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:10">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D49" s="14">
         <v>13676343367</v>
       </c>
@@ -14411,7 +14423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:10">
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D50" s="14">
         <v>15257918657</v>
       </c>
@@ -14433,7 +14445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="3:10">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D51" s="14">
         <v>18831099037</v>
       </c>
@@ -14455,7 +14467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="3:10">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D52" s="14">
         <v>15039298864</v>
       </c>
@@ -14477,7 +14489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="3:10">
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D53" s="14">
         <v>18818426811</v>
       </c>
@@ -14499,7 +14511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="3:10">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D54" s="14">
         <v>15257918657</v>
       </c>
@@ -14521,7 +14533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="3:10">
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D55" s="14">
         <v>18331375226</v>
       </c>
@@ -14543,20 +14555,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="3:10" ht="30">
+    <row r="56" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C56" s="23" t="s">
         <v>986</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F56" s="21" t="s">
         <v>886</v>
       </c>
-      <c r="G56" s="22" t="s">
+      <c r="G56" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="H56" s="22" t="s">
+      <c r="H56" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="I56" s="22" t="s">
+      <c r="I56" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J56" s="14">
@@ -14564,18 +14576,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="3:10" ht="30">
+    <row r="57" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C57" s="23"/>
-      <c r="F57" s="22" t="s">
+      <c r="F57" s="21" t="s">
         <v>889</v>
       </c>
-      <c r="G57" s="22" t="s">
+      <c r="G57" s="21" t="s">
         <v>890</v>
       </c>
-      <c r="H57" s="22" t="s">
+      <c r="H57" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="I57" s="22" t="s">
+      <c r="I57" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J57" s="14">
@@ -14583,18 +14595,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="3:10" ht="30">
+    <row r="58" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C58" s="23"/>
-      <c r="F58" s="22" t="s">
+      <c r="F58" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="G58" s="22" t="s">
+      <c r="G58" s="21" t="s">
         <v>895</v>
       </c>
-      <c r="H58" s="22" t="s">
+      <c r="H58" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="I58" s="22" t="s">
+      <c r="I58" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J58" s="14">
@@ -14602,18 +14614,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="3:10" ht="30">
+    <row r="59" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C59" s="23"/>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="G59" s="22" t="s">
+      <c r="G59" s="21" t="s">
         <v>897</v>
       </c>
-      <c r="H59" s="22" t="s">
+      <c r="H59" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="I59" s="22" t="s">
+      <c r="I59" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J59" s="14">
@@ -14621,18 +14633,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="3:10" ht="30">
+    <row r="60" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C60" s="23"/>
-      <c r="F60" s="22" t="s">
+      <c r="F60" s="21" t="s">
         <v>898</v>
       </c>
-      <c r="G60" s="22" t="s">
+      <c r="G60" s="21" t="s">
         <v>899</v>
       </c>
-      <c r="H60" s="22" t="s">
+      <c r="H60" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="I60" s="22" t="s">
+      <c r="I60" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J60" s="14">
@@ -14640,18 +14652,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="3:10" ht="30">
+    <row r="61" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C61" s="23"/>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="21" t="s">
         <v>886</v>
       </c>
-      <c r="G61" s="22" t="s">
+      <c r="G61" s="21" t="s">
         <v>900</v>
       </c>
-      <c r="H61" s="22" t="s">
+      <c r="H61" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="I61" s="22" t="s">
+      <c r="I61" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J61" s="14">
@@ -14659,18 +14671,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="3:10" ht="30">
+    <row r="62" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C62" s="23"/>
-      <c r="F62" s="22" t="s">
+      <c r="F62" s="21" t="s">
         <v>908</v>
       </c>
-      <c r="G62" s="22" t="s">
+      <c r="G62" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="H62" s="22" t="s">
+      <c r="H62" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="I62" s="22" t="s">
+      <c r="I62" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J62" s="14">
@@ -14678,18 +14690,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="3:10" ht="30">
+    <row r="63" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C63" s="23"/>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="21" t="s">
         <v>914</v>
       </c>
-      <c r="G63" s="22" t="s">
+      <c r="G63" s="21" t="s">
         <v>915</v>
       </c>
-      <c r="H63" s="22" t="s">
+      <c r="H63" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="I63" s="22" t="s">
+      <c r="I63" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J63" s="14">
@@ -14697,18 +14709,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="3:10" ht="30">
+    <row r="64" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C64" s="23"/>
-      <c r="F64" s="22" t="s">
+      <c r="F64" s="21" t="s">
         <v>886</v>
       </c>
-      <c r="G64" s="22" t="s">
+      <c r="G64" s="21" t="s">
         <v>920</v>
       </c>
-      <c r="H64" s="22" t="s">
+      <c r="H64" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="I64" s="22" t="s">
+      <c r="I64" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J64" s="14">
@@ -14716,18 +14728,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="3:10" ht="30">
+    <row r="65" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C65" s="23"/>
-      <c r="F65" s="22" t="s">
+      <c r="F65" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="G65" s="22" t="s">
+      <c r="G65" s="21" t="s">
         <v>921</v>
       </c>
-      <c r="H65" s="22" t="s">
+      <c r="H65" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="I65" s="22" t="s">
+      <c r="I65" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J65" s="14">
@@ -14735,18 +14747,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="3:10" ht="30">
+    <row r="66" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C66" s="23"/>
-      <c r="F66" s="22" t="s">
+      <c r="F66" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="G66" s="22" t="s">
+      <c r="G66" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="H66" s="22" t="s">
+      <c r="H66" s="21" t="s">
         <v>599</v>
       </c>
-      <c r="I66" s="22" t="s">
+      <c r="I66" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J66" s="14">
@@ -14754,18 +14766,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="3:10" ht="30">
+    <row r="67" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C67" s="23"/>
-      <c r="F67" s="22" t="s">
+      <c r="F67" s="21" t="s">
         <v>898</v>
       </c>
-      <c r="G67" s="22" t="s">
+      <c r="G67" s="21" t="s">
         <v>923</v>
       </c>
-      <c r="H67" s="22" t="s">
+      <c r="H67" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="I67" s="22" t="s">
+      <c r="I67" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J67" s="14">
@@ -14773,18 +14785,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="3:10" ht="30">
+    <row r="68" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C68" s="23"/>
-      <c r="F68" s="22" t="s">
+      <c r="F68" s="21" t="s">
         <v>924</v>
       </c>
-      <c r="G68" s="22" t="s">
+      <c r="G68" s="21" t="s">
         <v>925</v>
       </c>
-      <c r="H68" s="22" t="s">
+      <c r="H68" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="I68" s="22" t="s">
+      <c r="I68" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J68" s="14">
@@ -14792,18 +14804,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="3:10" ht="30">
+    <row r="69" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C69" s="23"/>
-      <c r="F69" s="22" t="s">
+      <c r="F69" s="21" t="s">
         <v>889</v>
       </c>
-      <c r="G69" s="22" t="s">
+      <c r="G69" s="21" t="s">
         <v>937</v>
       </c>
-      <c r="H69" s="22" t="s">
+      <c r="H69" s="21" t="s">
         <v>936</v>
       </c>
-      <c r="I69" s="22" t="s">
+      <c r="I69" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J69" s="14">
@@ -14811,18 +14823,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="3:10" ht="30">
+    <row r="70" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C70" s="23"/>
-      <c r="F70" s="22" t="s">
+      <c r="F70" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="G70" s="22" t="s">
+      <c r="G70" s="21" t="s">
         <v>939</v>
       </c>
-      <c r="H70" s="22" t="s">
+      <c r="H70" s="21" t="s">
         <v>938</v>
       </c>
-      <c r="I70" s="22" t="s">
+      <c r="I70" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J70" s="14">
@@ -14830,18 +14842,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="3:10" ht="30">
+    <row r="71" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C71" s="23"/>
-      <c r="F71" s="22" t="s">
+      <c r="F71" s="21" t="s">
         <v>898</v>
       </c>
-      <c r="G71" s="22" t="s">
+      <c r="G71" s="21" t="s">
         <v>941</v>
       </c>
-      <c r="H71" s="22" t="s">
+      <c r="H71" s="21" t="s">
         <v>940</v>
       </c>
-      <c r="I71" s="22" t="s">
+      <c r="I71" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J71" s="14">
@@ -14849,18 +14861,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="3:10" ht="30">
+    <row r="72" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C72" s="23"/>
-      <c r="F72" s="22" t="s">
+      <c r="F72" s="21" t="s">
         <v>924</v>
       </c>
-      <c r="G72" s="22" t="s">
+      <c r="G72" s="21" t="s">
         <v>943</v>
       </c>
-      <c r="H72" s="22" t="s">
+      <c r="H72" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="I72" s="22" t="s">
+      <c r="I72" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J72" s="14">
@@ -14868,18 +14880,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="3:10" ht="30">
+    <row r="73" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C73" s="23"/>
-      <c r="F73" s="22" t="s">
+      <c r="F73" s="21" t="s">
         <v>908</v>
       </c>
-      <c r="G73" s="22" t="s">
+      <c r="G73" s="21" t="s">
         <v>945</v>
       </c>
-      <c r="H73" s="22" t="s">
+      <c r="H73" s="21" t="s">
         <v>944</v>
       </c>
-      <c r="I73" s="22" t="s">
+      <c r="I73" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J73" s="14">
@@ -14887,18 +14899,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="3:10" ht="30">
+    <row r="74" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C74" s="23"/>
-      <c r="F74" s="22" t="s">
+      <c r="F74" s="21" t="s">
         <v>889</v>
       </c>
-      <c r="G74" s="22" t="s">
+      <c r="G74" s="21" t="s">
         <v>959</v>
       </c>
-      <c r="H74" s="22" t="s">
+      <c r="H74" s="21" t="s">
         <v>958</v>
       </c>
-      <c r="I74" s="22" t="s">
+      <c r="I74" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J74" s="14">
@@ -14906,18 +14918,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="3:10" ht="30">
+    <row r="75" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C75" s="23"/>
-      <c r="F75" s="22" t="s">
+      <c r="F75" s="21" t="s">
         <v>908</v>
       </c>
-      <c r="G75" s="22" t="s">
+      <c r="G75" s="21" t="s">
         <v>963</v>
       </c>
-      <c r="H75" s="22" t="s">
+      <c r="H75" s="21" t="s">
         <v>962</v>
       </c>
-      <c r="I75" s="22" t="s">
+      <c r="I75" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J75" s="14">
@@ -14925,18 +14937,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="3:10" ht="30">
+    <row r="76" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C76" s="23"/>
-      <c r="F76" s="22" t="s">
+      <c r="F76" s="21" t="s">
         <v>914</v>
       </c>
-      <c r="G76" s="22" t="s">
+      <c r="G76" s="21" t="s">
         <v>968</v>
       </c>
-      <c r="H76" s="22" t="s">
+      <c r="H76" s="21" t="s">
         <v>967</v>
       </c>
-      <c r="I76" s="22" t="s">
+      <c r="I76" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J76" s="14">
@@ -14944,18 +14956,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="3:10" ht="30">
+    <row r="77" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C77" s="23"/>
-      <c r="F77" s="22" t="s">
+      <c r="F77" s="21" t="s">
         <v>972</v>
       </c>
-      <c r="G77" s="22" t="s">
+      <c r="G77" s="21" t="s">
         <v>973</v>
       </c>
-      <c r="H77" s="22" t="s">
+      <c r="H77" s="21" t="s">
         <v>971</v>
       </c>
-      <c r="I77" s="22" t="s">
+      <c r="I77" s="21" t="s">
         <v>888</v>
       </c>
       <c r="J77" s="14">
@@ -14963,18 +14975,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="3:10" ht="30">
+    <row r="78" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C78" s="23"/>
-      <c r="F78" s="22" t="s">
+      <c r="F78" s="21" t="s">
         <v>947</v>
       </c>
-      <c r="G78" s="22" t="s">
+      <c r="G78" s="21" t="s">
         <v>948</v>
       </c>
-      <c r="H78" s="22" t="s">
+      <c r="H78" s="21" t="s">
         <v>946</v>
       </c>
-      <c r="I78" s="22" t="s">
+      <c r="I78" s="21" t="s">
         <v>949</v>
       </c>
       <c r="J78" s="14">
@@ -14982,18 +14994,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="3:10" ht="30">
+    <row r="79" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C79" s="23"/>
-      <c r="F79" s="22" t="s">
+      <c r="F79" s="21" t="s">
         <v>951</v>
       </c>
-      <c r="G79" s="22" t="s">
+      <c r="G79" s="21" t="s">
         <v>952</v>
       </c>
-      <c r="H79" s="22" t="s">
+      <c r="H79" s="21" t="s">
         <v>950</v>
       </c>
-      <c r="I79" s="22" t="s">
+      <c r="I79" s="21" t="s">
         <v>949</v>
       </c>
       <c r="J79" s="14">
@@ -15001,18 +15013,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="3:10" ht="30">
+    <row r="80" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C80" s="23"/>
-      <c r="F80" s="22" t="s">
+      <c r="F80" s="21" t="s">
         <v>956</v>
       </c>
-      <c r="G80" s="22" t="s">
+      <c r="G80" s="21" t="s">
         <v>957</v>
       </c>
-      <c r="H80" s="22" t="s">
+      <c r="H80" s="21" t="s">
         <v>955</v>
       </c>
-      <c r="I80" s="22" t="s">
+      <c r="I80" s="21" t="s">
         <v>949</v>
       </c>
       <c r="J80" s="14">
@@ -15020,18 +15032,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="3:10" ht="30">
+    <row r="81" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C81" s="23"/>
-      <c r="F81" s="22" t="s">
+      <c r="F81" s="21" t="s">
         <v>906</v>
       </c>
-      <c r="G81" s="22" t="s">
+      <c r="G81" s="21" t="s">
         <v>961</v>
       </c>
-      <c r="H81" s="22" t="s">
+      <c r="H81" s="21" t="s">
         <v>960</v>
       </c>
-      <c r="I81" s="22" t="s">
+      <c r="I81" s="21" t="s">
         <v>949</v>
       </c>
       <c r="J81" s="14">
@@ -15039,18 +15051,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="3:10" ht="30">
+    <row r="82" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C82" s="23"/>
-      <c r="F82" s="22" t="s">
+      <c r="F82" s="21" t="s">
         <v>965</v>
       </c>
-      <c r="G82" s="22" t="s">
+      <c r="G82" s="21" t="s">
         <v>966</v>
       </c>
-      <c r="H82" s="22" t="s">
+      <c r="H82" s="21" t="s">
         <v>964</v>
       </c>
-      <c r="I82" s="22" t="s">
+      <c r="I82" s="21" t="s">
         <v>949</v>
       </c>
       <c r="J82" s="14">
@@ -15058,18 +15070,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="3:10" ht="45">
+    <row r="83" spans="3:10" ht="48" x14ac:dyDescent="0.25">
       <c r="C83" s="23"/>
-      <c r="F83" s="22" t="s">
+      <c r="F83" s="21" t="s">
         <v>911</v>
       </c>
-      <c r="G83" s="22" t="s">
+      <c r="G83" s="21" t="s">
         <v>912</v>
       </c>
-      <c r="H83" s="22" t="s">
+      <c r="H83" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="I83" s="22" t="s">
+      <c r="I83" s="21" t="s">
         <v>913</v>
       </c>
       <c r="J83" s="14">
@@ -15077,18 +15089,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="3:10" ht="45">
+    <row r="84" spans="3:10" ht="48" x14ac:dyDescent="0.25">
       <c r="C84" s="23"/>
-      <c r="F84" s="22" t="s">
+      <c r="F84" s="21" t="s">
         <v>916</v>
       </c>
-      <c r="G84" s="22" t="s">
+      <c r="G84" s="21" t="s">
         <v>917</v>
       </c>
-      <c r="H84" s="22" t="s">
+      <c r="H84" s="21" t="s">
         <v>686</v>
       </c>
-      <c r="I84" s="22" t="s">
+      <c r="I84" s="21" t="s">
         <v>913</v>
       </c>
       <c r="J84" s="14">
@@ -15096,18 +15108,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="3:10" ht="45">
+    <row r="85" spans="3:10" ht="48" x14ac:dyDescent="0.25">
       <c r="C85" s="23"/>
-      <c r="F85" s="22" t="s">
+      <c r="F85" s="21" t="s">
         <v>918</v>
       </c>
-      <c r="G85" s="22" t="s">
+      <c r="G85" s="21" t="s">
         <v>919</v>
       </c>
-      <c r="H85" s="22" t="s">
+      <c r="H85" s="21" t="s">
         <v>721</v>
       </c>
-      <c r="I85" s="22" t="s">
+      <c r="I85" s="21" t="s">
         <v>913</v>
       </c>
       <c r="J85" s="14">
@@ -15115,18 +15127,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="3:10" ht="45">
+    <row r="86" spans="3:10" ht="48" x14ac:dyDescent="0.25">
       <c r="C86" s="23"/>
-      <c r="F86" s="22" t="s">
+      <c r="F86" s="21" t="s">
         <v>927</v>
       </c>
-      <c r="G86" s="22" t="s">
+      <c r="G86" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="H86" s="22" t="s">
+      <c r="H86" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="I86" s="22" t="s">
+      <c r="I86" s="21" t="s">
         <v>913</v>
       </c>
       <c r="J86" s="14">
@@ -15134,18 +15146,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="3:10" ht="45">
+    <row r="87" spans="3:10" ht="48" x14ac:dyDescent="0.25">
       <c r="C87" s="23"/>
-      <c r="F87" s="22" t="s">
+      <c r="F87" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="G87" s="22" t="s">
+      <c r="G87" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="H87" s="22" t="s">
+      <c r="H87" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="I87" s="22" t="s">
+      <c r="I87" s="21" t="s">
         <v>913</v>
       </c>
       <c r="J87" s="14">
@@ -15153,18 +15165,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="3:10" ht="45">
+    <row r="88" spans="3:10" ht="48" x14ac:dyDescent="0.25">
       <c r="C88" s="23"/>
-      <c r="F88" s="22" t="s">
+      <c r="F88" s="21" t="s">
         <v>929</v>
       </c>
-      <c r="G88" s="22" t="s">
+      <c r="G88" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="H88" s="22" t="s">
+      <c r="H88" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="I88" s="22" t="s">
+      <c r="I88" s="21" t="s">
         <v>913</v>
       </c>
       <c r="J88" s="14">
@@ -15172,18 +15184,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="3:10" ht="45">
+    <row r="89" spans="3:10" ht="48" x14ac:dyDescent="0.25">
       <c r="C89" s="23"/>
-      <c r="F89" s="22" t="s">
+      <c r="F89" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="G89" s="22" t="s">
+      <c r="G89" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="H89" s="22" t="s">
+      <c r="H89" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="I89" s="22" t="s">
+      <c r="I89" s="21" t="s">
         <v>913</v>
       </c>
       <c r="J89" s="14">
@@ -15191,18 +15203,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="3:10" ht="45">
+    <row r="90" spans="3:10" ht="48" x14ac:dyDescent="0.25">
       <c r="C90" s="23"/>
-      <c r="F90" s="22" t="s">
+      <c r="F90" s="21" t="s">
         <v>931</v>
       </c>
-      <c r="G90" s="22" t="s">
+      <c r="G90" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="H90" s="22" t="s">
+      <c r="H90" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="I90" s="22" t="s">
+      <c r="I90" s="21" t="s">
         <v>913</v>
       </c>
       <c r="J90" s="14">
@@ -15210,18 +15222,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="3:10" ht="45">
+    <row r="91" spans="3:10" ht="48" x14ac:dyDescent="0.25">
       <c r="C91" s="23"/>
-      <c r="F91" s="22" t="s">
+      <c r="F91" s="21" t="s">
         <v>932</v>
       </c>
-      <c r="G91" s="22" t="s">
+      <c r="G91" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="H91" s="22" t="s">
+      <c r="H91" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="I91" s="22" t="s">
+      <c r="I91" s="21" t="s">
         <v>913</v>
       </c>
       <c r="J91" s="14">
@@ -15229,18 +15241,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="3:10" ht="45">
+    <row r="92" spans="3:10" ht="48" x14ac:dyDescent="0.25">
       <c r="C92" s="23"/>
-      <c r="F92" s="22" t="s">
+      <c r="F92" s="21" t="s">
         <v>933</v>
       </c>
-      <c r="G92" s="22" t="s">
+      <c r="G92" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="H92" s="22" t="s">
+      <c r="H92" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="I92" s="22" t="s">
+      <c r="I92" s="21" t="s">
         <v>913</v>
       </c>
       <c r="J92" s="14">
@@ -15248,18 +15260,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="3:10" ht="45">
+    <row r="93" spans="3:10" ht="48" x14ac:dyDescent="0.25">
       <c r="C93" s="23"/>
-      <c r="F93" s="22" t="s">
+      <c r="F93" s="21" t="s">
         <v>934</v>
       </c>
-      <c r="G93" s="22" t="s">
+      <c r="G93" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="H93" s="22" t="s">
+      <c r="H93" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="I93" s="22" t="s">
+      <c r="I93" s="21" t="s">
         <v>913</v>
       </c>
       <c r="J93" s="14">
@@ -15267,18 +15279,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="3:10" ht="45">
+    <row r="94" spans="3:10" ht="48" x14ac:dyDescent="0.25">
       <c r="C94" s="23"/>
-      <c r="F94" s="22" t="s">
+      <c r="F94" s="21" t="s">
         <v>935</v>
       </c>
-      <c r="G94" s="22" t="s">
+      <c r="G94" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="H94" s="22" t="s">
+      <c r="H94" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="I94" s="22" t="s">
+      <c r="I94" s="21" t="s">
         <v>913</v>
       </c>
       <c r="J94" s="14">
@@ -15286,18 +15298,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="3:10" ht="45">
+    <row r="95" spans="3:10" ht="48" x14ac:dyDescent="0.25">
       <c r="C95" s="23"/>
-      <c r="F95" s="22" t="s">
+      <c r="F95" s="21" t="s">
         <v>983</v>
       </c>
-      <c r="G95" s="22" t="s">
+      <c r="G95" s="21" t="s">
         <v>954</v>
       </c>
-      <c r="H95" s="22" t="s">
+      <c r="H95" s="21" t="s">
         <v>953</v>
       </c>
-      <c r="I95" s="22" t="s">
+      <c r="I95" s="21" t="s">
         <v>913</v>
       </c>
       <c r="J95" s="14">
@@ -15305,18 +15317,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="3:10" ht="45">
+    <row r="96" spans="3:10" ht="48" x14ac:dyDescent="0.25">
       <c r="C96" s="23"/>
-      <c r="F96" s="22" t="s">
+      <c r="F96" s="21" t="s">
         <v>916</v>
       </c>
-      <c r="G96" s="22" t="s">
+      <c r="G96" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="H96" s="22" t="s">
+      <c r="H96" s="21" t="s">
         <v>969</v>
       </c>
-      <c r="I96" s="22" t="s">
+      <c r="I96" s="21" t="s">
         <v>913</v>
       </c>
       <c r="J96" s="14">
@@ -15324,18 +15336,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="3:10" ht="30">
+    <row r="97" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C97" s="23"/>
-      <c r="F97" s="22" t="s">
+      <c r="F97" s="21" t="s">
         <v>870</v>
       </c>
-      <c r="G97" s="22" t="s">
+      <c r="G97" s="21" t="s">
         <v>891</v>
       </c>
-      <c r="H97" s="22" t="s">
+      <c r="H97" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="I97" s="22" t="s">
+      <c r="I97" s="21" t="s">
         <v>892</v>
       </c>
       <c r="J97" s="14">
@@ -15343,18 +15355,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="3:10" ht="30">
+    <row r="98" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C98" s="23"/>
-      <c r="F98" s="22" t="s">
+      <c r="F98" s="21" t="s">
         <v>835</v>
       </c>
-      <c r="G98" s="22" t="s">
+      <c r="G98" s="21" t="s">
         <v>893</v>
       </c>
-      <c r="H98" s="22" t="s">
+      <c r="H98" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="I98" s="22" t="s">
+      <c r="I98" s="21" t="s">
         <v>892</v>
       </c>
       <c r="J98" s="14">
@@ -15362,18 +15374,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="3:10" ht="30">
+    <row r="99" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C99" s="23"/>
-      <c r="F99" s="22" t="s">
+      <c r="F99" s="21" t="s">
         <v>836</v>
       </c>
-      <c r="G99" s="22" t="s">
+      <c r="G99" s="21" t="s">
         <v>901</v>
       </c>
-      <c r="H99" s="22" t="s">
+      <c r="H99" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="I99" s="22" t="s">
+      <c r="I99" s="21" t="s">
         <v>892</v>
       </c>
       <c r="J99" s="14">
@@ -15381,18 +15393,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="3:10" ht="30">
+    <row r="100" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C100" s="23"/>
-      <c r="F100" s="22" t="s">
+      <c r="F100" s="21" t="s">
         <v>902</v>
       </c>
-      <c r="G100" s="22" t="s">
+      <c r="G100" s="21" t="s">
         <v>903</v>
       </c>
-      <c r="H100" s="22" t="s">
+      <c r="H100" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="I100" s="22" t="s">
+      <c r="I100" s="21" t="s">
         <v>892</v>
       </c>
       <c r="J100" s="14">
@@ -15400,18 +15412,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="3:10" ht="30">
+    <row r="101" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C101" s="23"/>
-      <c r="F101" s="22" t="s">
+      <c r="F101" s="21" t="s">
         <v>837</v>
       </c>
-      <c r="G101" s="22" t="s">
+      <c r="G101" s="21" t="s">
         <v>904</v>
       </c>
-      <c r="H101" s="22" t="s">
+      <c r="H101" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="I101" s="22" t="s">
+      <c r="I101" s="21" t="s">
         <v>892</v>
       </c>
       <c r="J101" s="14">
@@ -15419,18 +15431,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="3:10" ht="30">
+    <row r="102" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C102" s="23"/>
-      <c r="F102" s="22" t="s">
+      <c r="F102" s="21" t="s">
         <v>864</v>
       </c>
-      <c r="G102" s="22" t="s">
+      <c r="G102" s="21" t="s">
         <v>905</v>
       </c>
-      <c r="H102" s="22" t="s">
+      <c r="H102" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="I102" s="22" t="s">
+      <c r="I102" s="21" t="s">
         <v>892</v>
       </c>
       <c r="J102" s="14">
@@ -15438,18 +15450,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="3:10" ht="30">
+    <row r="103" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C103" s="23"/>
-      <c r="F103" s="22" t="s">
+      <c r="F103" s="21" t="s">
         <v>906</v>
       </c>
-      <c r="G103" s="22" t="s">
+      <c r="G103" s="21" t="s">
         <v>907</v>
       </c>
-      <c r="H103" s="22" t="s">
+      <c r="H103" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="I103" s="22" t="s">
+      <c r="I103" s="21" t="s">
         <v>892</v>
       </c>
       <c r="J103" s="14">
@@ -15457,18 +15469,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="3:10" ht="30">
+    <row r="104" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C104" s="23"/>
-      <c r="F104" s="22" t="s">
+      <c r="F104" s="21" t="s">
         <v>871</v>
       </c>
-      <c r="G104" s="22" t="s">
+      <c r="G104" s="21" t="s">
         <v>910</v>
       </c>
-      <c r="H104" s="22" t="s">
+      <c r="H104" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="I104" s="22" t="s">
+      <c r="I104" s="21" t="s">
         <v>892</v>
       </c>
       <c r="J104" s="14">
@@ -15476,18 +15488,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="3:10" ht="30">
+    <row r="105" spans="3:10" ht="32" x14ac:dyDescent="0.25">
       <c r="C105" s="23"/>
-      <c r="F105" s="22" t="s">
+      <c r="F105" s="21" t="s">
         <v>902</v>
       </c>
-      <c r="G105" s="22" t="s">
+      <c r="G105" s="21" t="s">
         <v>926</v>
       </c>
-      <c r="H105" s="22" t="s">
+      <c r="H105" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="I105" s="22" t="s">
+      <c r="I105" s="21" t="s">
         <v>892</v>
       </c>
       <c r="J105" s="14">
@@ -15495,506 +15507,506 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="3:10">
-      <c r="D106" s="21"/>
-    </row>
-    <row r="107" spans="3:10">
-      <c r="D107" s="20"/>
-    </row>
-    <row r="108" spans="3:10">
-      <c r="D108" s="20"/>
-    </row>
-    <row r="109" spans="3:10">
-      <c r="D109" s="20"/>
-    </row>
-    <row r="110" spans="3:10">
-      <c r="D110" s="20"/>
-    </row>
-    <row r="111" spans="3:10">
-      <c r="D111" s="21"/>
-    </row>
-    <row r="112" spans="3:10">
-      <c r="D112" s="20"/>
-    </row>
-    <row r="113" spans="4:4">
-      <c r="D113" s="20"/>
-    </row>
-    <row r="114" spans="4:4">
-      <c r="D114" s="20"/>
-    </row>
-    <row r="115" spans="4:4">
-      <c r="D115" s="20"/>
-    </row>
-    <row r="116" spans="4:4">
-      <c r="D116" s="21"/>
-    </row>
-    <row r="117" spans="4:4">
-      <c r="D117" s="20"/>
-    </row>
-    <row r="118" spans="4:4">
-      <c r="D118" s="20"/>
-    </row>
-    <row r="119" spans="4:4">
-      <c r="D119" s="20"/>
-    </row>
-    <row r="120" spans="4:4">
-      <c r="D120" s="20"/>
-    </row>
-    <row r="121" spans="4:4">
-      <c r="D121" s="21"/>
-    </row>
-    <row r="122" spans="4:4">
-      <c r="D122" s="20"/>
-    </row>
-    <row r="123" spans="4:4">
-      <c r="D123" s="20"/>
-    </row>
-    <row r="124" spans="4:4">
-      <c r="D124" s="20"/>
-    </row>
-    <row r="125" spans="4:4">
-      <c r="D125" s="20"/>
-    </row>
-    <row r="126" spans="4:4">
-      <c r="D126" s="21"/>
-    </row>
-    <row r="127" spans="4:4">
-      <c r="D127" s="20"/>
-    </row>
-    <row r="128" spans="4:4">
-      <c r="D128" s="20"/>
-    </row>
-    <row r="129" spans="4:4">
-      <c r="D129" s="20"/>
-    </row>
-    <row r="130" spans="4:4">
-      <c r="D130" s="20"/>
-    </row>
-    <row r="131" spans="4:4">
-      <c r="D131" s="21"/>
-    </row>
-    <row r="132" spans="4:4">
-      <c r="D132" s="20"/>
-    </row>
-    <row r="133" spans="4:4">
-      <c r="D133" s="20"/>
-    </row>
-    <row r="134" spans="4:4">
-      <c r="D134" s="20"/>
-    </row>
-    <row r="135" spans="4:4">
-      <c r="D135" s="20"/>
-    </row>
-    <row r="136" spans="4:4">
-      <c r="D136" s="21"/>
-    </row>
-    <row r="137" spans="4:4">
-      <c r="D137" s="20"/>
-    </row>
-    <row r="138" spans="4:4">
-      <c r="D138" s="20"/>
-    </row>
-    <row r="139" spans="4:4">
-      <c r="D139" s="20"/>
-    </row>
-    <row r="140" spans="4:4">
-      <c r="D140" s="20"/>
-    </row>
-    <row r="141" spans="4:4">
-      <c r="D141" s="21"/>
-    </row>
-    <row r="142" spans="4:4">
-      <c r="D142" s="20"/>
-    </row>
-    <row r="143" spans="4:4">
-      <c r="D143" s="20"/>
-    </row>
-    <row r="144" spans="4:4">
-      <c r="D144" s="20"/>
-    </row>
-    <row r="145" spans="4:4">
-      <c r="D145" s="20"/>
-    </row>
-    <row r="146" spans="4:4">
-      <c r="D146" s="21"/>
-    </row>
-    <row r="147" spans="4:4">
-      <c r="D147" s="20"/>
-    </row>
-    <row r="148" spans="4:4">
-      <c r="D148" s="20"/>
-    </row>
-    <row r="149" spans="4:4">
-      <c r="D149" s="20"/>
-    </row>
-    <row r="150" spans="4:4">
-      <c r="D150" s="20"/>
-    </row>
-    <row r="151" spans="4:4">
-      <c r="D151" s="21"/>
-    </row>
-    <row r="152" spans="4:4">
-      <c r="D152" s="20"/>
-    </row>
-    <row r="153" spans="4:4">
-      <c r="D153" s="20"/>
-    </row>
-    <row r="154" spans="4:4">
-      <c r="D154" s="20"/>
-    </row>
-    <row r="155" spans="4:4">
-      <c r="D155" s="20"/>
-    </row>
-    <row r="156" spans="4:4">
-      <c r="D156" s="21"/>
-    </row>
-    <row r="157" spans="4:4">
-      <c r="D157" s="20"/>
-    </row>
-    <row r="158" spans="4:4">
-      <c r="D158" s="20"/>
-    </row>
-    <row r="159" spans="4:4">
-      <c r="D159" s="20"/>
-    </row>
-    <row r="160" spans="4:4">
-      <c r="D160" s="20"/>
-    </row>
-    <row r="161" spans="4:4">
-      <c r="D161" s="21"/>
-    </row>
-    <row r="162" spans="4:4">
-      <c r="D162" s="20"/>
-    </row>
-    <row r="163" spans="4:4">
-      <c r="D163" s="20"/>
-    </row>
-    <row r="164" spans="4:4">
-      <c r="D164" s="20"/>
-    </row>
-    <row r="165" spans="4:4">
-      <c r="D165" s="20"/>
-    </row>
-    <row r="166" spans="4:4">
-      <c r="D166" s="21"/>
-    </row>
-    <row r="167" spans="4:4">
-      <c r="D167" s="20"/>
-    </row>
-    <row r="168" spans="4:4">
-      <c r="D168" s="20"/>
-    </row>
-    <row r="169" spans="4:4">
-      <c r="D169" s="20"/>
-    </row>
-    <row r="170" spans="4:4">
-      <c r="D170" s="20"/>
-    </row>
-    <row r="171" spans="4:4">
-      <c r="D171" s="21"/>
-    </row>
-    <row r="172" spans="4:4">
-      <c r="D172" s="20"/>
-    </row>
-    <row r="173" spans="4:4">
-      <c r="D173" s="20"/>
-    </row>
-    <row r="174" spans="4:4">
-      <c r="D174" s="20"/>
-    </row>
-    <row r="175" spans="4:4">
-      <c r="D175" s="20"/>
-    </row>
-    <row r="176" spans="4:4">
-      <c r="D176" s="21"/>
-    </row>
-    <row r="177" spans="4:4">
-      <c r="D177" s="20"/>
-    </row>
-    <row r="178" spans="4:4">
-      <c r="D178" s="20"/>
-    </row>
-    <row r="179" spans="4:4">
-      <c r="D179" s="20"/>
-    </row>
-    <row r="180" spans="4:4">
-      <c r="D180" s="20"/>
-    </row>
-    <row r="181" spans="4:4">
-      <c r="D181" s="21"/>
-    </row>
-    <row r="182" spans="4:4">
-      <c r="D182" s="20"/>
-    </row>
-    <row r="183" spans="4:4">
-      <c r="D183" s="20"/>
-    </row>
-    <row r="184" spans="4:4">
-      <c r="D184" s="20"/>
-    </row>
-    <row r="185" spans="4:4">
-      <c r="D185" s="20"/>
-    </row>
-    <row r="186" spans="4:4">
-      <c r="D186" s="21"/>
-    </row>
-    <row r="187" spans="4:4">
-      <c r="D187" s="20"/>
-    </row>
-    <row r="188" spans="4:4">
-      <c r="D188" s="20"/>
-    </row>
-    <row r="189" spans="4:4">
-      <c r="D189" s="20"/>
-    </row>
-    <row r="190" spans="4:4">
-      <c r="D190" s="20"/>
-    </row>
-    <row r="191" spans="4:4">
-      <c r="D191" s="21"/>
-    </row>
-    <row r="192" spans="4:4">
-      <c r="D192" s="20"/>
-    </row>
-    <row r="193" spans="4:4">
-      <c r="D193" s="20"/>
-    </row>
-    <row r="194" spans="4:4">
-      <c r="D194" s="20"/>
-    </row>
-    <row r="195" spans="4:4">
-      <c r="D195" s="20"/>
-    </row>
-    <row r="196" spans="4:4">
-      <c r="D196" s="21"/>
-    </row>
-    <row r="197" spans="4:4">
-      <c r="D197" s="20"/>
-    </row>
-    <row r="198" spans="4:4">
-      <c r="D198" s="20"/>
-    </row>
-    <row r="199" spans="4:4">
-      <c r="D199" s="20"/>
-    </row>
-    <row r="200" spans="4:4">
-      <c r="D200" s="20"/>
-    </row>
-    <row r="201" spans="4:4">
-      <c r="D201" s="21"/>
-    </row>
-    <row r="202" spans="4:4">
-      <c r="D202" s="20"/>
-    </row>
-    <row r="203" spans="4:4">
-      <c r="D203" s="20"/>
-    </row>
-    <row r="204" spans="4:4">
-      <c r="D204" s="20"/>
-    </row>
-    <row r="205" spans="4:4">
-      <c r="D205" s="20"/>
-    </row>
-    <row r="206" spans="4:4">
-      <c r="D206" s="21"/>
-    </row>
-    <row r="207" spans="4:4">
-      <c r="D207" s="20"/>
-    </row>
-    <row r="208" spans="4:4">
-      <c r="D208" s="20"/>
-    </row>
-    <row r="209" spans="4:4">
-      <c r="D209" s="20"/>
-    </row>
-    <row r="210" spans="4:4">
-      <c r="D210" s="20"/>
-    </row>
-    <row r="211" spans="4:4">
-      <c r="D211" s="21"/>
-    </row>
-    <row r="212" spans="4:4">
-      <c r="D212" s="20"/>
-    </row>
-    <row r="213" spans="4:4">
-      <c r="D213" s="20"/>
-    </row>
-    <row r="214" spans="4:4">
-      <c r="D214" s="20"/>
-    </row>
-    <row r="215" spans="4:4">
-      <c r="D215" s="20"/>
-    </row>
-    <row r="216" spans="4:4">
-      <c r="D216" s="21"/>
-    </row>
-    <row r="217" spans="4:4">
-      <c r="D217" s="20"/>
-    </row>
-    <row r="218" spans="4:4">
-      <c r="D218" s="20"/>
-    </row>
-    <row r="219" spans="4:4">
-      <c r="D219" s="20"/>
-    </row>
-    <row r="220" spans="4:4">
-      <c r="D220" s="20"/>
-    </row>
-    <row r="221" spans="4:4">
-      <c r="D221" s="21"/>
-    </row>
-    <row r="222" spans="4:4">
-      <c r="D222" s="20"/>
-    </row>
-    <row r="223" spans="4:4">
-      <c r="D223" s="20"/>
-    </row>
-    <row r="224" spans="4:4">
-      <c r="D224" s="20"/>
-    </row>
-    <row r="225" spans="4:4">
-      <c r="D225" s="20"/>
-    </row>
-    <row r="226" spans="4:4">
-      <c r="D226" s="21"/>
-    </row>
-    <row r="227" spans="4:4">
-      <c r="D227" s="20"/>
-    </row>
-    <row r="228" spans="4:4">
-      <c r="D228" s="20"/>
-    </row>
-    <row r="229" spans="4:4">
-      <c r="D229" s="20"/>
-    </row>
-    <row r="230" spans="4:4">
-      <c r="D230" s="20"/>
-    </row>
-    <row r="231" spans="4:4">
-      <c r="D231" s="21"/>
-    </row>
-    <row r="232" spans="4:4">
-      <c r="D232" s="20"/>
-    </row>
-    <row r="233" spans="4:4">
-      <c r="D233" s="20"/>
-    </row>
-    <row r="234" spans="4:4">
-      <c r="D234" s="20"/>
-    </row>
-    <row r="235" spans="4:4">
-      <c r="D235" s="20"/>
-    </row>
-    <row r="236" spans="4:4">
-      <c r="D236" s="21"/>
-    </row>
-    <row r="237" spans="4:4">
-      <c r="D237" s="20"/>
-    </row>
-    <row r="238" spans="4:4">
-      <c r="D238" s="20"/>
-    </row>
-    <row r="239" spans="4:4">
-      <c r="D239" s="20"/>
-    </row>
-    <row r="240" spans="4:4">
-      <c r="D240" s="20"/>
-    </row>
-    <row r="241" spans="4:4">
-      <c r="D241" s="21"/>
-    </row>
-    <row r="242" spans="4:4">
-      <c r="D242" s="20"/>
-    </row>
-    <row r="243" spans="4:4">
-      <c r="D243" s="20"/>
-    </row>
-    <row r="244" spans="4:4">
-      <c r="D244" s="20"/>
-    </row>
-    <row r="245" spans="4:4">
-      <c r="D245" s="20"/>
-    </row>
-    <row r="246" spans="4:4">
-      <c r="D246" s="21"/>
-    </row>
-    <row r="247" spans="4:4">
-      <c r="D247" s="20"/>
-    </row>
-    <row r="248" spans="4:4">
-      <c r="D248" s="20"/>
-    </row>
-    <row r="249" spans="4:4">
-      <c r="D249" s="20"/>
-    </row>
-    <row r="250" spans="4:4">
-      <c r="D250" s="20"/>
-    </row>
-    <row r="251" spans="4:4">
-      <c r="D251" s="21"/>
-    </row>
-    <row r="252" spans="4:4">
-      <c r="D252" s="20"/>
-    </row>
-    <row r="253" spans="4:4">
-      <c r="D253" s="20"/>
-    </row>
-    <row r="254" spans="4:4">
-      <c r="D254" s="20"/>
-    </row>
-    <row r="255" spans="4:4">
-      <c r="D255" s="20"/>
-    </row>
-    <row r="256" spans="4:4">
-      <c r="D256" s="21"/>
-    </row>
-    <row r="257" spans="4:4">
-      <c r="D257" s="20"/>
-    </row>
-    <row r="258" spans="4:4">
-      <c r="D258" s="20"/>
-    </row>
-    <row r="259" spans="4:4">
-      <c r="D259" s="20"/>
-    </row>
-    <row r="260" spans="4:4">
-      <c r="D260" s="20"/>
-    </row>
-    <row r="261" spans="4:4">
-      <c r="D261" s="21"/>
-    </row>
-    <row r="262" spans="4:4">
-      <c r="D262" s="20"/>
-    </row>
-    <row r="263" spans="4:4">
-      <c r="D263" s="20"/>
-    </row>
-    <row r="264" spans="4:4">
-      <c r="D264" s="20"/>
-    </row>
-    <row r="265" spans="4:4">
-      <c r="D265" s="20"/>
-    </row>
-    <row r="266" spans="4:4">
-      <c r="D266" s="21"/>
-    </row>
-    <row r="267" spans="4:4">
-      <c r="D267" s="20"/>
-    </row>
-    <row r="268" spans="4:4">
-      <c r="D268" s="20"/>
-    </row>
-    <row r="269" spans="4:4">
-      <c r="D269" s="20"/>
-    </row>
-    <row r="270" spans="4:4">
-      <c r="D270" s="20"/>
-    </row>
-    <row r="271" spans="4:4">
-      <c r="D271" s="21"/>
-    </row>
-    <row r="272" spans="4:4">
-      <c r="D272" s="20"/>
+    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D106" s="20"/>
+    </row>
+    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D107" s="19"/>
+    </row>
+    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D108" s="19"/>
+    </row>
+    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D109" s="19"/>
+    </row>
+    <row r="110" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D110" s="19"/>
+    </row>
+    <row r="111" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D111" s="20"/>
+    </row>
+    <row r="112" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D112" s="19"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="19"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="19"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="19"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="20"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="19"/>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="19"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="19"/>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="19"/>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="20"/>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="19"/>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="19"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="19"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="19"/>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="20"/>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D127" s="19"/>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="19"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="19"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="19"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="20"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="19"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D133" s="19"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="19"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="19"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="20"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="19"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="19"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="19"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D140" s="19"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D141" s="20"/>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="19"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="19"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="19"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="19"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="20"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="19"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="19"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="19"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="19"/>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="20"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="19"/>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153" s="19"/>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="19"/>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="19"/>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156" s="20"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D157" s="19"/>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="19"/>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="19"/>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="19"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="20"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="19"/>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="19"/>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="19"/>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="19"/>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166" s="20"/>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="19"/>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="19"/>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169" s="19"/>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="19"/>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="20"/>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="19"/>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="19"/>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="19"/>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="19"/>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176" s="20"/>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D177" s="19"/>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D178" s="19"/>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D179" s="19"/>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D180" s="19"/>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D181" s="20"/>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D182" s="19"/>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="19"/>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D184" s="19"/>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D185" s="19"/>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D186" s="20"/>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D187" s="19"/>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D188" s="19"/>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D189" s="19"/>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D190" s="19"/>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D191" s="20"/>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D192" s="19"/>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D193" s="19"/>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D194" s="19"/>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D195" s="19"/>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D196" s="20"/>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D197" s="19"/>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D198" s="19"/>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D199" s="19"/>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D200" s="19"/>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D201" s="20"/>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D202" s="19"/>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D203" s="19"/>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D204" s="19"/>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D205" s="19"/>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D206" s="20"/>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D207" s="19"/>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D208" s="19"/>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209" s="19"/>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210" s="19"/>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D211" s="20"/>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212" s="19"/>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D213" s="19"/>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D214" s="19"/>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D215" s="19"/>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D216" s="20"/>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D217" s="19"/>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D218" s="19"/>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D219" s="19"/>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D220" s="19"/>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D221" s="20"/>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D222" s="19"/>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D223" s="19"/>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D224" s="19"/>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D225" s="19"/>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D226" s="20"/>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D227" s="19"/>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D228" s="19"/>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D229" s="19"/>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D230" s="19"/>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D231" s="20"/>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D232" s="19"/>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D233" s="19"/>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D234" s="19"/>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D235" s="19"/>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D236" s="20"/>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D237" s="19"/>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D238" s="19"/>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D239" s="19"/>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D240" s="19"/>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D241" s="20"/>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D242" s="19"/>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D243" s="19"/>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D244" s="19"/>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D245" s="19"/>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D246" s="20"/>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D247" s="19"/>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D248" s="19"/>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D249" s="19"/>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D250" s="19"/>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D251" s="20"/>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D252" s="19"/>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D253" s="19"/>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D254" s="19"/>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D255" s="19"/>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D256" s="20"/>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D257" s="19"/>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D258" s="19"/>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D259" s="19"/>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D260" s="19"/>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D261" s="20"/>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D262" s="19"/>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D263" s="19"/>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D264" s="19"/>
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D265" s="19"/>
+    </row>
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D266" s="20"/>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D267" s="19"/>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D268" s="19"/>
+    </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D269" s="19"/>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D270" s="19"/>
+    </row>
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D271" s="20"/>
+    </row>
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D272" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16004,11 +16016,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -16020,174 +16027,174 @@
       <selection sqref="A1:A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -16196,11 +16203,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -16212,14 +16214,14 @@
       <selection activeCell="A51" sqref="A51:C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>293</v>
       </c>
@@ -16272,7 +16274,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>344</v>
       </c>
@@ -16325,7 +16327,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>349</v>
       </c>
@@ -16378,7 +16380,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>364</v>
       </c>
@@ -16431,7 +16433,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>373</v>
       </c>
@@ -16484,7 +16486,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>395</v>
       </c>
@@ -16537,7 +16539,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>424</v>
       </c>
@@ -16590,7 +16592,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="8" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>483</v>
       </c>
@@ -16643,7 +16645,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="9" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>595</v>
       </c>
@@ -16696,7 +16698,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="10" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>596</v>
       </c>
@@ -16749,7 +16751,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="11" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>597</v>
       </c>
@@ -16802,7 +16804,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="12" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>598</v>
       </c>
@@ -16855,7 +16857,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="13" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>614</v>
       </c>
@@ -16908,7 +16910,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="14" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>631</v>
       </c>
@@ -16961,7 +16963,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="15" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>639</v>
       </c>
@@ -17014,7 +17016,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="16" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>640</v>
       </c>
@@ -17067,7 +17069,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="17" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>641</v>
       </c>
@@ -17120,7 +17122,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="18" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>642</v>
       </c>
@@ -17173,7 +17175,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="19" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>643</v>
       </c>
@@ -17226,7 +17228,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="20" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>644</v>
       </c>
@@ -17279,7 +17281,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="21" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>645</v>
       </c>
@@ -17332,7 +17334,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="22" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>646</v>
       </c>
@@ -17385,7 +17387,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="23" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>647</v>
       </c>
@@ -17438,7 +17440,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="24" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>648</v>
       </c>
@@ -17491,7 +17493,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="25" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>649</v>
       </c>
@@ -17544,7 +17546,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="26" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>650</v>
       </c>
@@ -17597,7 +17599,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="27" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>651</v>
       </c>
@@ -17650,7 +17652,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="28" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>652</v>
       </c>
@@ -17703,7 +17705,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="29" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>653</v>
       </c>
@@ -17756,7 +17758,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="30" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>654</v>
       </c>
@@ -17809,7 +17811,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="31" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>655</v>
       </c>
@@ -17862,7 +17864,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="32" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>656</v>
       </c>
@@ -17915,7 +17917,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="33" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>657</v>
       </c>
@@ -17968,7 +17970,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="34" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>658</v>
       </c>
@@ -18021,7 +18023,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="35" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>659</v>
       </c>
@@ -18074,7 +18076,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="36" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>660</v>
       </c>
@@ -18127,7 +18129,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="37" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>661</v>
       </c>
@@ -18180,7 +18182,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="38" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>671</v>
       </c>
@@ -18233,7 +18235,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="39" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>675</v>
       </c>
@@ -18286,7 +18288,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="40" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>676</v>
       </c>
@@ -18339,7 +18341,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="41" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>704</v>
       </c>
@@ -18392,7 +18394,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="42" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>708</v>
       </c>
@@ -18445,7 +18447,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="43" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>712</v>
       </c>
@@ -18498,7 +18500,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="44" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>716</v>
       </c>
@@ -18551,7 +18553,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="45" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>717</v>
       </c>
@@ -18604,7 +18606,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="46" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>718</v>
       </c>
@@ -18657,7 +18659,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="47" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>719</v>
       </c>
@@ -18710,7 +18712,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="48" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>720</v>
       </c>
@@ -18763,7 +18765,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="49" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>724</v>
       </c>
@@ -18816,7 +18818,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="3" customFormat="1" ht="17">
+    <row r="50" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>725</v>
       </c>
@@ -18869,7 +18871,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="18">
+    <row r="51" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>15533586119</v>
       </c>
@@ -18880,7 +18882,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>17631643045</v>
       </c>
@@ -18891,7 +18893,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="18">
+    <row r="53" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
         <v>18365799221</v>
       </c>
@@ -18902,7 +18904,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="18">
+    <row r="54" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>15964388967</v>
       </c>
@@ -18913,7 +18915,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="18">
+    <row r="55" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>15193524480</v>
       </c>
@@ -18928,11 +18930,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -18944,12 +18941,12 @@
       <selection activeCell="A38" sqref="A38:C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>756</v>
       </c>
@@ -18957,7 +18954,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>15627944858</v>
       </c>
@@ -18968,7 +18965,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>18353874500</v>
       </c>
@@ -18979,7 +18976,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>18834168128</v>
       </c>
@@ -18990,7 +18987,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>18982761259</v>
       </c>
@@ -19001,7 +18998,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>13464686175</v>
       </c>
@@ -19012,7 +19009,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>17853697903</v>
       </c>
@@ -19023,7 +19020,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>18864854877</v>
       </c>
@@ -19034,7 +19031,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>13463414918</v>
       </c>
@@ -19045,7 +19042,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>18764735850</v>
       </c>
@@ -19056,7 +19053,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>15247493282</v>
       </c>
@@ -19067,7 +19064,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>17393232815</v>
       </c>
@@ -19078,7 +19075,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>15830750275</v>
       </c>
@@ -19089,7 +19086,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>17879529656</v>
       </c>
@@ -19100,7 +19097,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>18743635726</v>
       </c>
@@ -19111,7 +19108,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>18698817813</v>
       </c>
@@ -19122,7 +19119,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>13230672756</v>
       </c>
@@ -19133,7 +19130,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>18183062125</v>
       </c>
@@ -19144,7 +19141,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>18438063310</v>
       </c>
@@ -19155,7 +19152,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>17631880252</v>
       </c>
@@ -19166,7 +19163,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>13935327172</v>
       </c>
@@ -19177,7 +19174,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>13333176802</v>
       </c>
@@ -19188,7 +19185,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>13624666057</v>
       </c>
@@ -19199,7 +19196,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15">
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>13593493641</v>
       </c>
@@ -19210,7 +19207,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15">
+    <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>15613794675</v>
       </c>
@@ -19221,7 +19218,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15">
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>15249625137</v>
       </c>
@@ -19232,7 +19229,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1">
+    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>294</v>
       </c>
@@ -19243,7 +19240,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15">
+    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>358</v>
       </c>
@@ -19254,7 +19251,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15">
+    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>365</v>
       </c>
@@ -19265,7 +19262,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15">
+    <row r="30" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>374</v>
       </c>
@@ -19276,7 +19273,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15">
+    <row r="31" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>386</v>
       </c>
@@ -19287,7 +19284,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15">
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>505</v>
       </c>
@@ -19298,7 +19295,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15">
+    <row r="33" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>513</v>
       </c>
@@ -19309,7 +19306,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15">
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>517</v>
       </c>
@@ -19320,7 +19317,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15">
+    <row r="35" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>529</v>
       </c>
@@ -19331,7 +19328,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15">
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>549</v>
       </c>
@@ -19342,12 +19339,12 @@
         <v>760</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
     </row>
-    <row r="38" spans="1:3" ht="15">
+    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>768</v>
       </c>
@@ -19358,7 +19355,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15">
+    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>769</v>
       </c>
@@ -19369,7 +19366,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15">
+    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>770</v>
       </c>
@@ -19380,7 +19377,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15">
+    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>771</v>
       </c>
@@ -19391,7 +19388,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15">
+    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>772</v>
       </c>
@@ -19402,7 +19399,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15">
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>773</v>
       </c>
@@ -19413,7 +19410,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15">
+    <row r="44" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>774</v>
       </c>
@@ -19424,7 +19421,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15">
+    <row r="45" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>775</v>
       </c>
@@ -19435,7 +19432,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15">
+    <row r="46" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>776</v>
       </c>
@@ -19446,7 +19443,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15">
+    <row r="47" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>778</v>
       </c>
@@ -19457,7 +19454,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15">
+    <row r="48" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>779</v>
       </c>
@@ -19468,7 +19465,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15">
+    <row r="49" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>780</v>
       </c>
@@ -19479,7 +19476,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15">
+    <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>781</v>
       </c>
@@ -19490,7 +19487,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15">
+    <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>782</v>
       </c>
@@ -19501,7 +19498,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15">
+    <row r="52" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>783</v>
       </c>
@@ -19512,7 +19509,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15">
+    <row r="53" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>784</v>
       </c>
@@ -19523,7 +19520,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15">
+    <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>785</v>
       </c>
@@ -19534,7 +19531,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15">
+    <row r="55" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>786</v>
       </c>
@@ -19545,7 +19542,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15">
+    <row r="56" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>787</v>
       </c>
@@ -19556,7 +19553,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15">
+    <row r="57" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>788</v>
       </c>
@@ -19567,7 +19564,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15">
+    <row r="58" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>789</v>
       </c>
@@ -19578,7 +19575,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15">
+    <row r="59" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>790</v>
       </c>
@@ -19589,7 +19586,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15">
+    <row r="60" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>791</v>
       </c>
@@ -19600,7 +19597,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15">
+    <row r="61" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>792</v>
       </c>
@@ -19611,7 +19608,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15">
+    <row r="62" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>793</v>
       </c>
@@ -19622,7 +19619,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15">
+    <row r="63" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>794</v>
       </c>
@@ -19633,7 +19630,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15">
+    <row r="64" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>795</v>
       </c>
@@ -19644,7 +19641,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15">
+    <row r="65" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>796</v>
       </c>
@@ -19655,7 +19652,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15">
+    <row r="66" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>797</v>
       </c>
@@ -19666,7 +19663,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15">
+    <row r="67" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>798</v>
       </c>
@@ -19677,7 +19674,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15">
+    <row r="68" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>799</v>
       </c>
@@ -19688,7 +19685,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15">
+    <row r="69" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>800</v>
       </c>
@@ -19699,7 +19696,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15">
+    <row r="70" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
         <v>801</v>
       </c>
@@ -19710,7 +19707,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15">
+    <row r="71" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>802</v>
       </c>
@@ -19721,7 +19718,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15">
+    <row r="72" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>803</v>
       </c>
@@ -19732,7 +19729,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15">
+    <row r="73" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
         <v>804</v>
       </c>
@@ -19743,7 +19740,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15">
+    <row r="74" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
         <v>716</v>
       </c>
@@ -19754,7 +19751,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15">
+    <row r="75" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>805</v>
       </c>
@@ -19765,7 +19762,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15">
+    <row r="76" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>806</v>
       </c>
@@ -19776,7 +19773,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15">
+    <row r="77" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>807</v>
       </c>
@@ -19787,7 +19784,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15">
+    <row r="78" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
         <v>808</v>
       </c>
@@ -19798,7 +19795,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15">
+    <row r="79" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>809</v>
       </c>
@@ -19809,7 +19806,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15">
+    <row r="80" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>810</v>
       </c>
@@ -19820,7 +19817,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15">
+    <row r="81" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
         <v>811</v>
       </c>
@@ -19831,7 +19828,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15">
+    <row r="82" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>812</v>
       </c>
@@ -19842,7 +19839,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15">
+    <row r="83" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
         <v>813</v>
       </c>
@@ -19853,7 +19850,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15">
+    <row r="84" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>814</v>
       </c>
@@ -19864,7 +19861,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15">
+    <row r="85" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>815</v>
       </c>
@@ -19875,7 +19872,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15">
+    <row r="86" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
         <v>816</v>
       </c>
@@ -19886,7 +19883,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15">
+    <row r="87" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
         <v>817</v>
       </c>
@@ -19897,7 +19894,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15">
+    <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
         <v>818</v>
       </c>
@@ -19908,7 +19905,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15">
+    <row r="89" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
         <v>819</v>
       </c>
@@ -19919,7 +19916,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15">
+    <row r="90" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>820</v>
       </c>
@@ -19930,7 +19927,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15">
+    <row r="91" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
         <v>821</v>
       </c>
@@ -19941,7 +19938,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15">
+    <row r="92" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>822</v>
       </c>
@@ -19952,7 +19949,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15">
+    <row r="93" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
         <v>823</v>
       </c>
@@ -19963,7 +19960,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15">
+    <row r="94" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>824</v>
       </c>
@@ -19974,7 +19971,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15">
+    <row r="95" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
         <v>825</v>
       </c>
@@ -19985,22 +19982,22 @@
         <v>760</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
     </row>
-    <row r="97" spans="1:3" ht="15">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
     </row>
-    <row r="98" spans="1:3" ht="15">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
     </row>
-    <row r="99" spans="1:3" ht="15">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -20009,28 +20006,24 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>756</v>
       </c>
@@ -20038,851 +20031,863 @@
         <v>759</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>13153185002</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>13343192376</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>13485665212</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>13700077519</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>15063527328</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>15075870950</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>15206334886</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>15303199414</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>15354193781</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>15373204143</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>15399130078</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>15515970953</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>15937230461</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>15951853170</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>17379324087</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>18537303412</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>15549208672</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>15777186432</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>15177909309</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>15238555689</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15">
+      <c r="B20" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>13720689056</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15">
+      <c r="B21" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>15835086989</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>15665166293</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
+      <c r="B23" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>13513642792</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15">
+      <c r="B24" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>13081312422</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
+      <c r="B25" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>18533703270</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
+      <c r="B26" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>15082907866</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>15935492346</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15">
+      <c r="B28" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>13842111030</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15">
+      <c r="B29" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>15046846298</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15">
+      <c r="B30" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>18903188059</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15">
+      <c r="B31" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>13670589613</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15">
+      <c r="B32" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>13792080758</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15">
+      <c r="B33" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>13313181385</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>13102661153</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>17535275750</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>18709222182</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>13351208936</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>13392151517</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>13399381732</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>13413723166</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>13453301621</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="17">
         <v>654321</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>13512856201</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>13519083633</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>13521690981</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>13546886639</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>13633696711</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>13993852417</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>15131828567</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>15264711001</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>15264711296</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>15393630594</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
         <v>15633523066</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>15645919316</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>15697680921</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="17">
         <v>123456</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="15">
+      <c r="C55" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
         <v>15698229041</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="17">
         <v>123456</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="15">
+      <c r="C56" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
         <v>15699770933</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B57" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>15949806339</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>15981953127</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B59" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>17097224268</v>
       </c>
-      <c r="B60" s="18">
+      <c r="B60" s="17">
         <v>123456</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="15">
+      <c r="C60" t="s">
+        <v>987</v>
+      </c>
+      <c r="D60" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>17505106529</v>
       </c>
-      <c r="B61" s="18">
+      <c r="B61" s="17">
         <v>132623</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>17612746321</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>17753747930</v>
       </c>
-      <c r="B63" s="18">
+      <c r="B63" s="17">
         <v>8642569</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
         <v>17757449525</v>
       </c>
-      <c r="B64" s="18">
+      <c r="B64" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>18131970041</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="14">
         <v>18232902912</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
         <v>18246626742</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="14">
         <v>18253251389</v>
       </c>
-      <c r="B68" s="18">
+      <c r="B68" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
         <v>18382394514</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
         <v>18810320392</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70" s="17">
         <v>12345678</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
         <v>18863572962</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
         <v>18946959184</v>
       </c>
-      <c r="B72" s="18">
+      <c r="B72" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
         <v>18967839427</v>
       </c>
-      <c r="B73" s="18">
+      <c r="B73" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="14">
         <v>15635316166</v>
       </c>
-      <c r="B74" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15">
+      <c r="B74" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
         <v>13969577793</v>
       </c>
-      <c r="B75" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15">
+      <c r="B75" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="14">
         <v>15535874823</v>
       </c>
-      <c r="B76" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15">
+      <c r="B76" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="14">
         <v>15525146023</v>
       </c>
-      <c r="B77" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15">
+      <c r="B77" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="14">
         <v>15582882641</v>
       </c>
-      <c r="B78" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15">
+      <c r="B78" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="14">
         <v>15588159966</v>
       </c>
-      <c r="B79" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15">
+      <c r="B79" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="14">
         <v>18909564220</v>
       </c>
-      <c r="B80" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15">
+      <c r="B80" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="14">
         <v>15535890431</v>
       </c>
-      <c r="B81" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15">
+      <c r="B81" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="14">
         <v>15303529430</v>
       </c>
-      <c r="B82" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15">
+      <c r="B82" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="14">
         <v>15535486077</v>
       </c>
-      <c r="B83" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15">
+      <c r="B83" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="14">
         <v>15834343940</v>
       </c>
-      <c r="B84" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15">
+      <c r="B84" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="14">
         <v>13895490886</v>
       </c>
-      <c r="B85" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15">
+      <c r="B85" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="14">
         <v>15081664435</v>
       </c>
-      <c r="B86" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15">
+      <c r="B86" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="14">
         <v>13781072791</v>
       </c>
-      <c r="B87" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15">
+      <c r="B87" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="14">
         <v>15330512791</v>
       </c>
-      <c r="B88" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15">
+      <c r="B88" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="14">
         <v>17031887830</v>
       </c>
-      <c r="B89" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15">
+      <c r="B89" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="14">
         <v>13283936032</v>
       </c>
-      <c r="B90" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15">
+      <c r="B90" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="14">
         <v>15046800490</v>
       </c>
-      <c r="B91" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="15">
+      <c r="B91" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="14">
         <v>15081820867</v>
       </c>
-      <c r="B92" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15">
+      <c r="B92" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="14">
         <v>13831322890</v>
       </c>
-      <c r="B93" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15">
+      <c r="B93" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="14">
         <v>18434763969</v>
       </c>
-      <c r="B94" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15">
+      <c r="B94" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="14">
         <v>15035399985</v>
       </c>
-      <c r="B95" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15">
+      <c r="B95" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="14">
         <v>18291130651</v>
       </c>
-      <c r="B96" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15">
+      <c r="B96" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="14">
         <v>13220790090</v>
       </c>
-      <c r="B97" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15">
+      <c r="B97" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="14">
         <v>15003443253</v>
       </c>
-      <c r="B98" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15">
+      <c r="B98" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="14">
         <v>13676343367</v>
       </c>
-      <c r="B99" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15">
+      <c r="B99" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="14">
         <v>15257918657</v>
       </c>
-      <c r="B100" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15">
+      <c r="B100" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="14">
         <v>15505201939</v>
       </c>
-      <c r="B101" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15">
+      <c r="B101" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="14">
         <v>18831099037</v>
       </c>
-      <c r="B102" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="15">
+      <c r="B102" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="14">
         <v>15039298864</v>
       </c>
-      <c r="B103" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="15">
+      <c r="B103" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="14">
         <v>13839228541</v>
       </c>
-      <c r="B104" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="15">
+      <c r="B104" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="14">
         <v>18818426811</v>
       </c>
-      <c r="B105" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="15">
+      <c r="B105" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="14">
         <v>15257918657</v>
       </c>
-      <c r="B106" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="15">
+      <c r="B106" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="14">
         <v>18331375226</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -20890,11 +20895,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -20906,15 +20906,15 @@
       <selection activeCell="C2" sqref="C2:G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40">
+    <row r="1" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>874</v>
       </c>
@@ -20937,7 +20937,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>278</v>
       </c>
@@ -20961,7 +20961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>300</v>
       </c>
@@ -20985,7 +20985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>378</v>
       </c>
@@ -21009,7 +21009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>382</v>
       </c>
@@ -21033,7 +21033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>396</v>
       </c>
@@ -21057,7 +21057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>408</v>
       </c>
@@ -21081,7 +21081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>469</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>456</v>
       </c>
@@ -21129,7 +21129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>632</v>
       </c>
@@ -21153,7 +21153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>591</v>
       </c>
@@ -21177,7 +21177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>599</v>
       </c>
@@ -21201,7 +21201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30">
+    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>603</v>
       </c>
@@ -21225,7 +21225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>607</v>
       </c>
@@ -21249,7 +21249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>936</v>
       </c>
@@ -21273,7 +21273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>938</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="30">
+    <row r="17" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>940</v>
       </c>
@@ -21321,7 +21321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15">
+    <row r="18" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>942</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30">
+    <row r="19" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>944</v>
       </c>
@@ -21369,7 +21369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15">
+    <row r="20" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>958</v>
       </c>
@@ -21393,7 +21393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="30">
+    <row r="21" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>962</v>
       </c>
@@ -21417,7 +21417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30">
+    <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>967</v>
       </c>
@@ -21441,7 +21441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15">
+    <row r="23" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>971</v>
       </c>
@@ -21465,7 +21465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30">
+    <row r="24" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>946</v>
       </c>
@@ -21489,7 +21489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15">
+    <row r="25" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>950</v>
       </c>
@@ -21513,7 +21513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15">
+    <row r="26" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>955</v>
       </c>
@@ -21537,7 +21537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15">
+    <row r="27" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>960</v>
       </c>
@@ -21561,7 +21561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15">
+    <row r="28" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>964</v>
       </c>
@@ -21585,7 +21585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15">
+    <row r="29" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>545</v>
       </c>
@@ -21615,7 +21615,7 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:13" ht="15">
+    <row r="30" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>686</v>
       </c>
@@ -21645,7 +21645,7 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" ht="15">
+    <row r="31" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>721</v>
       </c>
@@ -21675,7 +21675,7 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13" ht="30">
+    <row r="32" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>304</v>
       </c>
@@ -21705,7 +21705,7 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:13" ht="30">
+    <row r="33" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>314</v>
       </c>
@@ -21735,7 +21735,7 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:13" ht="30">
+    <row r="34" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>323</v>
       </c>
@@ -21765,7 +21765,7 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" ht="30">
+    <row r="35" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>336</v>
       </c>
@@ -21795,7 +21795,7 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" ht="30">
+    <row r="36" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>340</v>
       </c>
@@ -21825,7 +21825,7 @@
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" ht="30">
+    <row r="37" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>350</v>
       </c>
@@ -21855,7 +21855,7 @@
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" ht="30">
+    <row r="38" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>369</v>
       </c>
@@ -21885,7 +21885,7 @@
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:13" ht="30">
+    <row r="39" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>390</v>
       </c>
@@ -21915,7 +21915,7 @@
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" spans="1:13" ht="30">
+    <row r="40" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>404</v>
       </c>
@@ -21945,7 +21945,7 @@
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="1:13" ht="15">
+    <row r="41" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>953</v>
       </c>
@@ -21975,7 +21975,7 @@
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:13" ht="15">
+    <row r="42" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>969</v>
       </c>
@@ -22005,7 +22005,7 @@
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="1:13" ht="30">
+    <row r="43" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>328</v>
       </c>
@@ -22029,7 +22029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="30">
+    <row r="44" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>354</v>
       </c>
@@ -22053,7 +22053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15">
+    <row r="45" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>412</v>
       </c>
@@ -22077,7 +22077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="30">
+    <row r="46" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>414</v>
       </c>
@@ -22101,7 +22101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="30">
+    <row r="47" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>420</v>
       </c>
@@ -22125,7 +22125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="30">
+    <row r="48" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>422</v>
       </c>
@@ -22149,7 +22149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15">
+    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>461</v>
       </c>
@@ -22173,7 +22173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15">
+    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>484</v>
       </c>
@@ -22197,7 +22197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30">
+    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>490</v>
       </c>
@@ -22221,7 +22221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -22229,7 +22229,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
     </row>
-    <row r="53" spans="1:7" ht="15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -22237,7 +22237,7 @@
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" spans="1:7" ht="15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -22245,7 +22245,7 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
     </row>
-    <row r="55" spans="1:7" ht="15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -22260,10 +22260,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>